--- a/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>BITF</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47100</v>
+        <v>57100</v>
       </c>
       <c r="E8" s="3">
-        <v>36400</v>
+        <v>46700</v>
       </c>
       <c r="F8" s="3">
-        <v>14500</v>
+        <v>36200</v>
       </c>
       <c r="G8" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H8" s="3">
         <v>8700</v>
       </c>
-      <c r="H8" s="3">
-        <v>21300</v>
-      </c>
       <c r="I8" s="3">
-        <v>11800</v>
+        <v>21100</v>
       </c>
       <c r="J8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K8" s="3">
         <v>13500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17100</v>
+        <v>19500</v>
       </c>
       <c r="E9" s="3">
-        <v>11700</v>
+        <v>17000</v>
       </c>
       <c r="F9" s="3">
-        <v>11000</v>
+        <v>11600</v>
       </c>
       <c r="G9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H9" s="3">
         <v>10000</v>
       </c>
-      <c r="H9" s="3">
-        <v>29400</v>
-      </c>
       <c r="I9" s="3">
-        <v>10200</v>
+        <v>29200</v>
       </c>
       <c r="J9" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K9" s="3">
         <v>9900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30000</v>
+        <v>37600</v>
       </c>
       <c r="E10" s="3">
-        <v>24700</v>
+        <v>29800</v>
       </c>
       <c r="F10" s="3">
+        <v>24600</v>
+      </c>
+      <c r="G10" s="3">
         <v>3500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-8100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,19 +887,22 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-2400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -890,17 +910,20 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>49700</v>
+        <v>13500</v>
       </c>
       <c r="E17" s="3">
-        <v>15300</v>
+        <v>49400</v>
       </c>
       <c r="F17" s="3">
-        <v>13800</v>
+        <v>15200</v>
       </c>
       <c r="G17" s="3">
-        <v>12400</v>
+        <v>13700</v>
       </c>
       <c r="H17" s="3">
-        <v>25100</v>
+        <v>12300</v>
       </c>
       <c r="I17" s="3">
-        <v>13800</v>
+        <v>25000</v>
       </c>
       <c r="J17" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K17" s="3">
         <v>13400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2700</v>
+        <v>43500</v>
       </c>
       <c r="E18" s="3">
-        <v>21100</v>
+        <v>-2600</v>
       </c>
       <c r="F18" s="3">
+        <v>20900</v>
+      </c>
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="I18" s="3">
-        <v>-2000</v>
-      </c>
       <c r="J18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>-28800</v>
-      </c>
       <c r="F20" s="3">
-        <v>-5500</v>
+        <v>-28600</v>
       </c>
       <c r="G20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E21" s="3">
         <v>3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2500</v>
       </c>
-      <c r="I21" s="3">
-        <v>2400</v>
-      </c>
       <c r="J21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K21" s="3">
         <v>2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J22" s="3">
         <v>1800</v>
       </c>
-      <c r="G22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
-        <v>-8900</v>
-      </c>
       <c r="F23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-9800</v>
-      </c>
       <c r="F26" s="3">
-        <v>-6900</v>
+        <v>-9700</v>
       </c>
       <c r="G26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-7900</v>
-      </c>
       <c r="I26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-9800</v>
-      </c>
       <c r="F27" s="3">
-        <v>-6900</v>
+        <v>-9700</v>
       </c>
       <c r="G27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H27" s="3">
         <v>-6100</v>
       </c>
-      <c r="H27" s="3">
-        <v>-7900</v>
-      </c>
       <c r="I27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>28800</v>
-      </c>
       <c r="F32" s="3">
-        <v>5500</v>
+        <v>28600</v>
       </c>
       <c r="G32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-9800</v>
-      </c>
       <c r="F33" s="3">
-        <v>-6900</v>
+        <v>-9700</v>
       </c>
       <c r="G33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-6100</v>
       </c>
-      <c r="H33" s="3">
-        <v>-7900</v>
-      </c>
       <c r="I33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-9800</v>
-      </c>
       <c r="F35" s="3">
-        <v>-6900</v>
+        <v>-9700</v>
       </c>
       <c r="G35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-6100</v>
       </c>
-      <c r="H35" s="3">
-        <v>-7900</v>
-      </c>
       <c r="I35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46500</v>
+        <v>55100</v>
       </c>
       <c r="E41" s="3">
-        <v>68000</v>
+        <v>46100</v>
       </c>
       <c r="F41" s="3">
+        <v>67600</v>
+      </c>
+      <c r="G41" s="3">
         <v>7600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1700</v>
       </c>
       <c r="H41" s="3">
         <v>1700</v>
       </c>
       <c r="I41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,124 +1681,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3400</v>
       </c>
-      <c r="E43" s="3">
-        <v>3800</v>
-      </c>
       <c r="F43" s="3">
-        <v>1800</v>
+        <v>3700</v>
       </c>
       <c r="G43" s="3">
         <v>1800</v>
       </c>
       <c r="H43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>400</v>
       </c>
       <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59700</v>
+        <v>134600</v>
       </c>
       <c r="E45" s="3">
-        <v>43500</v>
+        <v>59300</v>
       </c>
       <c r="F45" s="3">
+        <v>43200</v>
+      </c>
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
-        <v>1400</v>
-      </c>
       <c r="I45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>110000</v>
+        <v>194300</v>
       </c>
       <c r="E46" s="3">
-        <v>115600</v>
+        <v>109300</v>
       </c>
       <c r="F46" s="3">
-        <v>11800</v>
+        <v>114900</v>
       </c>
       <c r="G46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H46" s="3">
         <v>5700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6100</v>
       </c>
-      <c r="I46" s="3">
-        <v>7800</v>
-      </c>
       <c r="J46" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K46" s="3">
         <v>8400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1841,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90000</v>
+        <v>119100</v>
       </c>
       <c r="E48" s="3">
-        <v>65000</v>
+        <v>89400</v>
       </c>
       <c r="F48" s="3">
-        <v>52800</v>
+        <v>64600</v>
       </c>
       <c r="G48" s="3">
-        <v>50600</v>
+        <v>52500</v>
       </c>
       <c r="H48" s="3">
-        <v>52200</v>
+        <v>50200</v>
       </c>
       <c r="I48" s="3">
-        <v>53900</v>
+        <v>51900</v>
       </c>
       <c r="J48" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K48" s="3">
         <v>56400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>96200</v>
+        <v>97100</v>
       </c>
       <c r="E52" s="3">
-        <v>29300</v>
+        <v>95500</v>
       </c>
       <c r="F52" s="3">
+        <v>29100</v>
+      </c>
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>296600</v>
+        <v>410700</v>
       </c>
       <c r="E54" s="3">
-        <v>210300</v>
+        <v>294500</v>
       </c>
       <c r="F54" s="3">
-        <v>66300</v>
+        <v>208900</v>
       </c>
       <c r="G54" s="3">
-        <v>58900</v>
+        <v>65900</v>
       </c>
       <c r="H54" s="3">
-        <v>61100</v>
+        <v>58500</v>
       </c>
       <c r="I54" s="3">
-        <v>65000</v>
+        <v>60700</v>
       </c>
       <c r="J54" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K54" s="3">
         <v>67800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,80 +2095,87 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5400</v>
+        <v>8100</v>
       </c>
       <c r="E57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
-        <v>3500</v>
-      </c>
       <c r="G57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16500</v>
+        <v>18400</v>
       </c>
       <c r="E58" s="3">
-        <v>8300</v>
+        <v>16300</v>
       </c>
       <c r="F58" s="3">
-        <v>26700</v>
+        <v>8200</v>
       </c>
       <c r="G58" s="3">
-        <v>17200</v>
+        <v>26500</v>
       </c>
       <c r="H58" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="I58" s="3">
-        <v>6400</v>
+        <v>16600</v>
       </c>
       <c r="J58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
-        <v>1000</v>
-      </c>
       <c r="F59" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>6300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
@@ -2046,89 +2183,98 @@
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27300</v>
+        <v>35300</v>
       </c>
       <c r="E60" s="3">
-        <v>13200</v>
+        <v>27100</v>
       </c>
       <c r="F60" s="3">
-        <v>36500</v>
+        <v>13100</v>
       </c>
       <c r="G60" s="3">
-        <v>19700</v>
+        <v>36300</v>
       </c>
       <c r="H60" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="I60" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J60" s="3">
         <v>9200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11100</v>
+        <v>8500</v>
       </c>
       <c r="E61" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F61" s="3">
         <v>12100</v>
       </c>
-      <c r="F61" s="3">
-        <v>9700</v>
-      </c>
       <c r="G61" s="3">
-        <v>14100</v>
+        <v>9600</v>
       </c>
       <c r="H61" s="3">
-        <v>11400</v>
+        <v>14000</v>
       </c>
       <c r="I61" s="3">
-        <v>21000</v>
+        <v>11300</v>
       </c>
       <c r="J61" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K61" s="3">
         <v>26400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
-        <v>3000</v>
-      </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>2900</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38900</v>
+        <v>51700</v>
       </c>
       <c r="E66" s="3">
-        <v>28300</v>
+        <v>38600</v>
       </c>
       <c r="F66" s="3">
-        <v>46500</v>
+        <v>28100</v>
       </c>
       <c r="G66" s="3">
-        <v>34100</v>
+        <v>46200</v>
       </c>
       <c r="H66" s="3">
+        <v>33900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K66" s="3">
+        <v>31800</v>
+      </c>
+      <c r="L66" s="3">
         <v>31100</v>
       </c>
-      <c r="I66" s="3">
-        <v>30500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>31800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>31100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-42900</v>
+        <v>-12300</v>
       </c>
       <c r="E72" s="3">
-        <v>-38200</v>
+        <v>-42600</v>
       </c>
       <c r="F72" s="3">
-        <v>-28400</v>
+        <v>-37900</v>
       </c>
       <c r="G72" s="3">
-        <v>-21500</v>
+        <v>-28200</v>
       </c>
       <c r="H72" s="3">
-        <v>-15400</v>
+        <v>-21400</v>
       </c>
       <c r="I72" s="3">
-        <v>-10600</v>
+        <v>-15300</v>
       </c>
       <c r="J72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-7500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>257700</v>
+        <v>359000</v>
       </c>
       <c r="E76" s="3">
-        <v>182000</v>
+        <v>255900</v>
       </c>
       <c r="F76" s="3">
-        <v>19800</v>
+        <v>180800</v>
       </c>
       <c r="G76" s="3">
-        <v>24800</v>
+        <v>19700</v>
       </c>
       <c r="H76" s="3">
-        <v>30000</v>
+        <v>24600</v>
       </c>
       <c r="I76" s="3">
-        <v>34500</v>
+        <v>29800</v>
       </c>
       <c r="J76" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K76" s="3">
         <v>36000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-9800</v>
-      </c>
       <c r="F81" s="3">
-        <v>-6900</v>
+        <v>-9700</v>
       </c>
       <c r="G81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-6100</v>
       </c>
-      <c r="H81" s="3">
-        <v>-7900</v>
-      </c>
       <c r="I81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
-        <v>3900</v>
-      </c>
       <c r="F83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G83" s="3">
         <v>3600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11400</v>
+        <v>-17200</v>
       </c>
       <c r="E89" s="3">
-        <v>-10800</v>
+        <v>-11300</v>
       </c>
       <c r="F89" s="3">
-        <v>4000</v>
+        <v>-10700</v>
       </c>
       <c r="G89" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H89" s="3">
         <v>2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28100</v>
+        <v>-36400</v>
       </c>
       <c r="E91" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-8800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>6200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>3500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-94100</v>
+        <v>-37400</v>
       </c>
       <c r="E94" s="3">
-        <v>-36900</v>
+        <v>-93500</v>
       </c>
       <c r="F94" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="G94" s="3">
         <v>700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3400</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>83900</v>
+        <v>63600</v>
       </c>
       <c r="E100" s="3">
-        <v>108100</v>
+        <v>83300</v>
       </c>
       <c r="F100" s="3">
+        <v>107300</v>
+      </c>
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3139,47 +3388,53 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-21600</v>
+        <v>9000</v>
       </c>
       <c r="E102" s="3">
-        <v>60400</v>
+        <v>-21400</v>
       </c>
       <c r="F102" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G102" s="3">
         <v>5900</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
@@ -725,7 +725,7 @@
         <v>57100</v>
       </c>
       <c r="E8" s="3">
-        <v>46700</v>
+        <v>46800</v>
       </c>
       <c r="F8" s="3">
         <v>36200</v>
@@ -737,7 +737,7 @@
         <v>8700</v>
       </c>
       <c r="I8" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="J8" s="3">
         <v>11700</v>
@@ -1003,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>43500</v>
+        <v>43600</v>
       </c>
       <c r="E18" s="3">
         <v>-2600</v>
@@ -1629,7 +1629,7 @@
         <v>55100</v>
       </c>
       <c r="E41" s="3">
-        <v>46100</v>
+        <v>46200</v>
       </c>
       <c r="F41" s="3">
         <v>67600</v>
@@ -1786,7 +1786,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>194300</v>
+        <v>194400</v>
       </c>
       <c r="E46" s="3">
         <v>109300</v>
@@ -1862,7 +1862,7 @@
         <v>52500</v>
       </c>
       <c r="H48" s="3">
-        <v>50200</v>
+        <v>50300</v>
       </c>
       <c r="I48" s="3">
         <v>51900</v>
@@ -1981,7 +1981,7 @@
         <v>97100</v>
       </c>
       <c r="E52" s="3">
-        <v>95500</v>
+        <v>95600</v>
       </c>
       <c r="F52" s="3">
         <v>29100</v>
@@ -2042,13 +2042,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>410700</v>
+        <v>410900</v>
       </c>
       <c r="E54" s="3">
-        <v>294500</v>
+        <v>294600</v>
       </c>
       <c r="F54" s="3">
-        <v>208900</v>
+        <v>209000</v>
       </c>
       <c r="G54" s="3">
         <v>65900</v>
@@ -2137,7 +2137,7 @@
         <v>18400</v>
       </c>
       <c r="E58" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="F58" s="3">
         <v>8200</v>
@@ -2175,7 +2175,7 @@
         <v>900</v>
       </c>
       <c r="G59" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
@@ -2213,7 +2213,7 @@
         <v>19600</v>
       </c>
       <c r="I60" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="J60" s="3">
         <v>9200</v>
@@ -2390,13 +2390,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51700</v>
+        <v>51800</v>
       </c>
       <c r="E66" s="3">
         <v>38600</v>
       </c>
       <c r="F66" s="3">
-        <v>28100</v>
+        <v>28200</v>
       </c>
       <c r="G66" s="3">
         <v>46200</v>
@@ -2564,7 +2564,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12300</v>
+        <v>-12400</v>
       </c>
       <c r="E72" s="3">
         <v>-42600</v>
@@ -2582,7 +2582,7 @@
         <v>-15300</v>
       </c>
       <c r="J72" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="K72" s="3">
         <v>-7500</v>
@@ -2692,10 +2692,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>359000</v>
+        <v>359100</v>
       </c>
       <c r="E76" s="3">
-        <v>255900</v>
+        <v>256000</v>
       </c>
       <c r="F76" s="3">
         <v>180800</v>
@@ -3077,7 +3077,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36400</v>
+        <v>-36500</v>
       </c>
       <c r="E91" s="3">
         <v>-27900</v>
@@ -3350,10 +3350,10 @@
         <v>63600</v>
       </c>
       <c r="E100" s="3">
-        <v>83300</v>
+        <v>83400</v>
       </c>
       <c r="F100" s="3">
-        <v>107300</v>
+        <v>107400</v>
       </c>
       <c r="G100" s="3">
         <v>1300</v>

--- a/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>BITF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57100</v>
+        <v>77700</v>
       </c>
       <c r="E8" s="3">
-        <v>46800</v>
+        <v>58400</v>
       </c>
       <c r="F8" s="3">
-        <v>36200</v>
+        <v>47900</v>
       </c>
       <c r="G8" s="3">
-        <v>14400</v>
+        <v>37000</v>
       </c>
       <c r="H8" s="3">
-        <v>8700</v>
+        <v>14700</v>
       </c>
       <c r="I8" s="3">
-        <v>21200</v>
+        <v>8900</v>
       </c>
       <c r="J8" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K8" s="3">
         <v>11700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19500</v>
+        <v>26900</v>
       </c>
       <c r="E9" s="3">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="F9" s="3">
-        <v>11600</v>
+        <v>17400</v>
       </c>
       <c r="G9" s="3">
-        <v>10900</v>
+        <v>11900</v>
       </c>
       <c r="H9" s="3">
-        <v>10000</v>
+        <v>11200</v>
       </c>
       <c r="I9" s="3">
-        <v>29200</v>
+        <v>10200</v>
       </c>
       <c r="J9" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K9" s="3">
         <v>10100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37600</v>
+        <v>50900</v>
       </c>
       <c r="E10" s="3">
-        <v>29800</v>
+        <v>38500</v>
       </c>
       <c r="F10" s="3">
-        <v>24600</v>
+        <v>30500</v>
       </c>
       <c r="G10" s="3">
+        <v>25100</v>
+      </c>
+      <c r="H10" s="3">
         <v>3500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1300</v>
       </c>
-      <c r="I10" s="3">
-        <v>-8100</v>
-      </c>
       <c r="J10" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,22 +906,25 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -913,17 +932,20 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13500</v>
+        <v>59200</v>
       </c>
       <c r="E17" s="3">
-        <v>49400</v>
+        <v>13800</v>
       </c>
       <c r="F17" s="3">
-        <v>15200</v>
+        <v>50600</v>
       </c>
       <c r="G17" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K17" s="3">
         <v>13700</v>
       </c>
-      <c r="H17" s="3">
-        <v>12300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>25000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>13700</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>43600</v>
+        <v>18600</v>
       </c>
       <c r="E18" s="3">
-        <v>-2600</v>
+        <v>44600</v>
       </c>
       <c r="F18" s="3">
-        <v>20900</v>
+        <v>-2700</v>
       </c>
       <c r="G18" s="3">
+        <v>21400</v>
+      </c>
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-3600</v>
-      </c>
       <c r="I18" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="J18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,168 +1075,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-28600</v>
-      </c>
       <c r="G20" s="3">
-        <v>-5400</v>
+        <v>-29300</v>
       </c>
       <c r="H20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>53200</v>
+        <v>37900</v>
       </c>
       <c r="E21" s="3">
-        <v>3500</v>
+        <v>54500</v>
       </c>
       <c r="F21" s="3">
-        <v>-3900</v>
+        <v>3600</v>
       </c>
       <c r="G21" s="3">
-        <v>-1100</v>
+        <v>-4000</v>
       </c>
       <c r="H21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
-        <v>1100</v>
-      </c>
       <c r="F22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G22" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="H22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>44200</v>
+        <v>23400</v>
       </c>
       <c r="E23" s="3">
-        <v>-3900</v>
+        <v>45300</v>
       </c>
       <c r="F23" s="3">
-        <v>-8800</v>
+        <v>-4000</v>
       </c>
       <c r="G23" s="3">
-        <v>-6500</v>
+        <v>-9000</v>
       </c>
       <c r="H23" s="3">
-        <v>-6100</v>
+        <v>-6600</v>
       </c>
       <c r="I23" s="3">
-        <v>-8000</v>
+        <v>-6200</v>
       </c>
       <c r="J23" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14000</v>
+        <v>10800</v>
       </c>
       <c r="E24" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
       </c>
       <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-3300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>30200</v>
+        <v>12600</v>
       </c>
       <c r="E26" s="3">
-        <v>-4700</v>
+        <v>31000</v>
       </c>
       <c r="F26" s="3">
-        <v>-9700</v>
+        <v>-4800</v>
       </c>
       <c r="G26" s="3">
-        <v>-6800</v>
+        <v>-9900</v>
       </c>
       <c r="H26" s="3">
-        <v>-6100</v>
+        <v>-7000</v>
       </c>
       <c r="I26" s="3">
-        <v>-7800</v>
+        <v>-6200</v>
       </c>
       <c r="J26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>30200</v>
+        <v>12600</v>
       </c>
       <c r="E27" s="3">
-        <v>-4700</v>
+        <v>31000</v>
       </c>
       <c r="F27" s="3">
-        <v>-9700</v>
+        <v>-4800</v>
       </c>
       <c r="G27" s="3">
-        <v>-6800</v>
+        <v>-9900</v>
       </c>
       <c r="H27" s="3">
-        <v>-6100</v>
+        <v>-7000</v>
       </c>
       <c r="I27" s="3">
-        <v>-7800</v>
+        <v>-6200</v>
       </c>
       <c r="J27" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>28600</v>
-      </c>
       <c r="G32" s="3">
-        <v>5400</v>
+        <v>29300</v>
       </c>
       <c r="H32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>30200</v>
+        <v>12600</v>
       </c>
       <c r="E33" s="3">
-        <v>-4700</v>
+        <v>31000</v>
       </c>
       <c r="F33" s="3">
-        <v>-9700</v>
+        <v>-4800</v>
       </c>
       <c r="G33" s="3">
-        <v>-6800</v>
+        <v>-9900</v>
       </c>
       <c r="H33" s="3">
-        <v>-6100</v>
+        <v>-7000</v>
       </c>
       <c r="I33" s="3">
-        <v>-7800</v>
+        <v>-6200</v>
       </c>
       <c r="J33" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>30200</v>
+        <v>12600</v>
       </c>
       <c r="E35" s="3">
-        <v>-4700</v>
+        <v>31000</v>
       </c>
       <c r="F35" s="3">
-        <v>-9700</v>
+        <v>-4800</v>
       </c>
       <c r="G35" s="3">
-        <v>-6800</v>
+        <v>-9900</v>
       </c>
       <c r="H35" s="3">
-        <v>-6100</v>
+        <v>-7000</v>
       </c>
       <c r="I35" s="3">
-        <v>-7800</v>
+        <v>-6200</v>
       </c>
       <c r="J35" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55100</v>
+        <v>163800</v>
       </c>
       <c r="E41" s="3">
-        <v>46200</v>
+        <v>56400</v>
       </c>
       <c r="F41" s="3">
-        <v>67600</v>
+        <v>47200</v>
       </c>
       <c r="G41" s="3">
-        <v>7600</v>
+        <v>69200</v>
       </c>
       <c r="H41" s="3">
-        <v>1700</v>
+        <v>7800</v>
       </c>
       <c r="I41" s="3">
         <v>1700</v>
       </c>
       <c r="J41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,159 +1773,174 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="E43" s="3">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="F43" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="G43" s="3">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="H43" s="3">
         <v>1800</v>
       </c>
       <c r="I43" s="3">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="J43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E44" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
       </c>
       <c r="G44" s="3">
+        <v>400</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>134600</v>
+        <v>205100</v>
       </c>
       <c r="E45" s="3">
-        <v>59300</v>
+        <v>137800</v>
       </c>
       <c r="F45" s="3">
-        <v>43200</v>
+        <v>60700</v>
       </c>
       <c r="G45" s="3">
-        <v>2100</v>
+        <v>44200</v>
       </c>
       <c r="H45" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="I45" s="3">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="J45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>194400</v>
+        <v>374500</v>
       </c>
       <c r="E46" s="3">
-        <v>109300</v>
+        <v>199000</v>
       </c>
       <c r="F46" s="3">
-        <v>114900</v>
+        <v>111900</v>
       </c>
       <c r="G46" s="3">
-        <v>11700</v>
+        <v>117600</v>
       </c>
       <c r="H46" s="3">
-        <v>5700</v>
+        <v>12000</v>
       </c>
       <c r="I46" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="J46" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K46" s="3">
         <v>7700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1844,72 +1948,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>119100</v>
+        <v>190800</v>
       </c>
       <c r="E48" s="3">
-        <v>89400</v>
+        <v>122000</v>
       </c>
       <c r="F48" s="3">
-        <v>64600</v>
+        <v>91600</v>
       </c>
       <c r="G48" s="3">
-        <v>52500</v>
+        <v>66100</v>
       </c>
       <c r="H48" s="3">
-        <v>50300</v>
+        <v>53700</v>
       </c>
       <c r="I48" s="3">
-        <v>51900</v>
+        <v>51500</v>
       </c>
       <c r="J48" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K48" s="3">
         <v>53500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>56400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>97100</v>
+        <v>115500</v>
       </c>
       <c r="E52" s="3">
-        <v>95600</v>
+        <v>99400</v>
       </c>
       <c r="F52" s="3">
-        <v>29100</v>
+        <v>97800</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>29800</v>
       </c>
       <c r="H52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>410900</v>
+        <v>707800</v>
       </c>
       <c r="E54" s="3">
-        <v>294600</v>
+        <v>420600</v>
       </c>
       <c r="F54" s="3">
-        <v>209000</v>
+        <v>301600</v>
       </c>
       <c r="G54" s="3">
-        <v>65900</v>
+        <v>213900</v>
       </c>
       <c r="H54" s="3">
-        <v>58500</v>
+        <v>67400</v>
       </c>
       <c r="I54" s="3">
-        <v>60700</v>
+        <v>59900</v>
       </c>
       <c r="J54" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K54" s="3">
         <v>64500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,89 +2225,96 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8100</v>
+        <v>12900</v>
       </c>
       <c r="E57" s="3">
-        <v>5300</v>
+        <v>8300</v>
       </c>
       <c r="F57" s="3">
-        <v>4000</v>
+        <v>5400</v>
       </c>
       <c r="G57" s="3">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="H57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I57" s="3">
         <v>2600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2700</v>
       </c>
       <c r="J57" s="3">
         <v>2800</v>
       </c>
       <c r="K57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18400</v>
+        <v>97300</v>
       </c>
       <c r="E58" s="3">
-        <v>16400</v>
+        <v>18800</v>
       </c>
       <c r="F58" s="3">
-        <v>8200</v>
+        <v>16700</v>
       </c>
       <c r="G58" s="3">
-        <v>26500</v>
+        <v>8400</v>
       </c>
       <c r="H58" s="3">
-        <v>17100</v>
+        <v>27100</v>
       </c>
       <c r="I58" s="3">
-        <v>16600</v>
+        <v>17500</v>
       </c>
       <c r="J58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K58" s="3">
         <v>6300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8800</v>
+        <v>21800</v>
       </c>
       <c r="E59" s="3">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="F59" s="3">
-        <v>900</v>
+        <v>5600</v>
       </c>
       <c r="G59" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
+        <v>1000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>6500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -2186,98 +2322,107 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35300</v>
+        <v>132000</v>
       </c>
       <c r="E60" s="3">
-        <v>27100</v>
+        <v>36100</v>
       </c>
       <c r="F60" s="3">
-        <v>13100</v>
+        <v>27800</v>
       </c>
       <c r="G60" s="3">
-        <v>36300</v>
+        <v>13500</v>
       </c>
       <c r="H60" s="3">
-        <v>19600</v>
+        <v>37100</v>
       </c>
       <c r="I60" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="J60" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K60" s="3">
         <v>9200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8500</v>
+        <v>13200</v>
       </c>
       <c r="E61" s="3">
-        <v>11000</v>
+        <v>8700</v>
       </c>
       <c r="F61" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="G61" s="3">
-        <v>9600</v>
+        <v>12300</v>
       </c>
       <c r="H61" s="3">
-        <v>14000</v>
+        <v>9900</v>
       </c>
       <c r="I61" s="3">
-        <v>11300</v>
+        <v>14300</v>
       </c>
       <c r="J61" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K61" s="3">
         <v>20900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7900</v>
+        <v>11300</v>
       </c>
       <c r="E62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
-        <v>2900</v>
-      </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -2288,8 +2433,11 @@
       <c r="L62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51800</v>
+        <v>156500</v>
       </c>
       <c r="E66" s="3">
-        <v>38600</v>
+        <v>53000</v>
       </c>
       <c r="F66" s="3">
-        <v>28200</v>
+        <v>39500</v>
       </c>
       <c r="G66" s="3">
-        <v>46200</v>
+        <v>28800</v>
       </c>
       <c r="H66" s="3">
-        <v>33900</v>
+        <v>47300</v>
       </c>
       <c r="I66" s="3">
-        <v>30900</v>
+        <v>34700</v>
       </c>
       <c r="J66" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K66" s="3">
         <v>30300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12400</v>
+        <v>0</v>
       </c>
       <c r="E72" s="3">
-        <v>-42600</v>
+        <v>-12600</v>
       </c>
       <c r="F72" s="3">
-        <v>-37900</v>
+        <v>-43600</v>
       </c>
       <c r="G72" s="3">
-        <v>-28200</v>
+        <v>-38800</v>
       </c>
       <c r="H72" s="3">
-        <v>-21400</v>
+        <v>-28900</v>
       </c>
       <c r="I72" s="3">
-        <v>-15300</v>
+        <v>-21900</v>
       </c>
       <c r="J72" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-10600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>359100</v>
+        <v>551200</v>
       </c>
       <c r="E76" s="3">
-        <v>256000</v>
+        <v>367600</v>
       </c>
       <c r="F76" s="3">
-        <v>180800</v>
+        <v>262100</v>
       </c>
       <c r="G76" s="3">
-        <v>19700</v>
+        <v>185100</v>
       </c>
       <c r="H76" s="3">
-        <v>24600</v>
+        <v>20100</v>
       </c>
       <c r="I76" s="3">
-        <v>29800</v>
+        <v>25200</v>
       </c>
       <c r="J76" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K76" s="3">
         <v>34200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>30200</v>
+        <v>12600</v>
       </c>
       <c r="E81" s="3">
-        <v>-4700</v>
+        <v>31000</v>
       </c>
       <c r="F81" s="3">
-        <v>-9700</v>
+        <v>-4800</v>
       </c>
       <c r="G81" s="3">
-        <v>-6800</v>
+        <v>-9900</v>
       </c>
       <c r="H81" s="3">
-        <v>-6100</v>
+        <v>-7000</v>
       </c>
       <c r="I81" s="3">
-        <v>-7800</v>
+        <v>-6200</v>
       </c>
       <c r="J81" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8000</v>
+        <v>13400</v>
       </c>
       <c r="E83" s="3">
-        <v>6300</v>
+        <v>8200</v>
       </c>
       <c r="F83" s="3">
-        <v>3800</v>
+        <v>6400</v>
       </c>
       <c r="G83" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="H83" s="3">
         <v>3700</v>
       </c>
       <c r="I83" s="3">
-        <v>7300</v>
+        <v>3800</v>
       </c>
       <c r="J83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K83" s="3">
         <v>3800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-17200</v>
+        <v>-8300</v>
       </c>
       <c r="E89" s="3">
-        <v>-11300</v>
+        <v>-17600</v>
       </c>
       <c r="F89" s="3">
-        <v>-10700</v>
+        <v>-11600</v>
       </c>
       <c r="G89" s="3">
-        <v>3900</v>
+        <v>-11000</v>
       </c>
       <c r="H89" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I89" s="3">
         <v>2200</v>
       </c>
-      <c r="I89" s="3">
-        <v>3100</v>
-      </c>
       <c r="J89" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36500</v>
+        <v>-36100</v>
       </c>
       <c r="E91" s="3">
-        <v>-27900</v>
+        <v>-37300</v>
       </c>
       <c r="F91" s="3">
-        <v>-8800</v>
+        <v>-28600</v>
       </c>
       <c r="G91" s="3">
-        <v>6200</v>
+        <v>-9000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2100</v>
+        <v>6400</v>
       </c>
       <c r="I91" s="3">
-        <v>-4100</v>
+        <v>-2200</v>
       </c>
       <c r="J91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>3500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37400</v>
+        <v>-109100</v>
       </c>
       <c r="E94" s="3">
-        <v>-93500</v>
+        <v>-38300</v>
       </c>
       <c r="F94" s="3">
-        <v>-36600</v>
+        <v>-95700</v>
       </c>
       <c r="G94" s="3">
-        <v>700</v>
+        <v>-37500</v>
       </c>
       <c r="H94" s="3">
+        <v>800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-3300</v>
-      </c>
       <c r="J94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3583,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>63600</v>
+        <v>224800</v>
       </c>
       <c r="E100" s="3">
-        <v>83400</v>
+        <v>65100</v>
       </c>
       <c r="F100" s="3">
-        <v>107400</v>
+        <v>85300</v>
       </c>
       <c r="G100" s="3">
+        <v>109900</v>
+      </c>
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3391,50 +3639,56 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9000</v>
+        <v>107400</v>
       </c>
       <c r="E102" s="3">
-        <v>-21400</v>
+        <v>9200</v>
       </c>
       <c r="F102" s="3">
-        <v>60000</v>
+        <v>-21900</v>
       </c>
       <c r="G102" s="3">
-        <v>5900</v>
+        <v>61400</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>BITF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,193 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>77700</v>
+        <v>54000</v>
       </c>
       <c r="E8" s="3">
-        <v>58400</v>
+        <v>52100</v>
       </c>
       <c r="F8" s="3">
-        <v>47900</v>
+        <v>77000</v>
       </c>
       <c r="G8" s="3">
-        <v>37000</v>
+        <v>57900</v>
       </c>
       <c r="H8" s="3">
-        <v>14700</v>
+        <v>47400</v>
       </c>
       <c r="I8" s="3">
+        <v>36700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K8" s="3">
         <v>8900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>21700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>13500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26900</v>
+        <v>41800</v>
       </c>
       <c r="E9" s="3">
-        <v>20000</v>
+        <v>30100</v>
       </c>
       <c r="F9" s="3">
-        <v>17400</v>
+        <v>26600</v>
       </c>
       <c r="G9" s="3">
-        <v>11900</v>
+        <v>19800</v>
       </c>
       <c r="H9" s="3">
-        <v>11200</v>
+        <v>17200</v>
       </c>
       <c r="I9" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K9" s="3">
         <v>10200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>29900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>9900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>50900</v>
+        <v>12300</v>
       </c>
       <c r="E10" s="3">
-        <v>38500</v>
+        <v>22000</v>
       </c>
       <c r="F10" s="3">
-        <v>30500</v>
+        <v>50400</v>
       </c>
       <c r="G10" s="3">
-        <v>25100</v>
+        <v>38100</v>
       </c>
       <c r="H10" s="3">
+        <v>30200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J10" s="3">
         <v>3500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-8300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,43 +943,55 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-2400</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1043,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>59200</v>
+        <v>276500</v>
       </c>
       <c r="E17" s="3">
-        <v>13800</v>
+        <v>43300</v>
       </c>
       <c r="F17" s="3">
-        <v>50600</v>
+        <v>58600</v>
       </c>
       <c r="G17" s="3">
-        <v>15600</v>
+        <v>13700</v>
       </c>
       <c r="H17" s="3">
-        <v>14000</v>
+        <v>50100</v>
       </c>
       <c r="I17" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K17" s="3">
         <v>12600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>25600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>13400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>18600</v>
+        <v>-222500</v>
       </c>
       <c r="E18" s="3">
-        <v>44600</v>
+        <v>8800</v>
       </c>
       <c r="F18" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
-        <v>21400</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,183 +1142,215 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5900</v>
+        <v>20000</v>
       </c>
       <c r="E20" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-5600</v>
-      </c>
       <c r="I20" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>500</v>
       </c>
       <c r="L20" s="3">
         <v>-1000</v>
       </c>
       <c r="M20" s="3">
+        <v>500</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>37900</v>
+        <v>-179400</v>
       </c>
       <c r="E21" s="3">
-        <v>54500</v>
+        <v>34900</v>
       </c>
       <c r="F21" s="3">
-        <v>3600</v>
+        <v>37600</v>
       </c>
       <c r="G21" s="3">
-        <v>-4000</v>
+        <v>54000</v>
       </c>
       <c r="H21" s="3">
-        <v>-1200</v>
+        <v>3500</v>
       </c>
       <c r="I21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2300</v>
       </c>
       <c r="L21" s="3">
         <v>2500</v>
       </c>
       <c r="M21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O21" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23400</v>
+        <v>-208400</v>
       </c>
       <c r="E23" s="3">
-        <v>45300</v>
+        <v>14200</v>
       </c>
       <c r="F23" s="3">
+        <v>23200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10800</v>
+        <v>-25000</v>
       </c>
       <c r="E24" s="3">
-        <v>14300</v>
+        <v>8300</v>
       </c>
       <c r="F24" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-3300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12600</v>
+        <v>-183400</v>
       </c>
       <c r="E26" s="3">
-        <v>31000</v>
+        <v>5800</v>
       </c>
       <c r="F26" s="3">
-        <v>-4800</v>
+        <v>12500</v>
       </c>
       <c r="G26" s="3">
-        <v>-9900</v>
+        <v>30700</v>
       </c>
       <c r="H26" s="3">
-        <v>-7000</v>
+        <v>-4700</v>
       </c>
       <c r="I26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12600</v>
+        <v>-183400</v>
       </c>
       <c r="E27" s="3">
-        <v>31000</v>
+        <v>5800</v>
       </c>
       <c r="F27" s="3">
-        <v>-4800</v>
+        <v>12500</v>
       </c>
       <c r="G27" s="3">
-        <v>-9900</v>
+        <v>30700</v>
       </c>
       <c r="H27" s="3">
-        <v>-7000</v>
+        <v>-4700</v>
       </c>
       <c r="I27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1630,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5900</v>
+        <v>-20000</v>
       </c>
       <c r="E32" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>29300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>5600</v>
-      </c>
       <c r="I32" s="3">
+        <v>29000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-500</v>
       </c>
       <c r="L32" s="3">
         <v>1000</v>
       </c>
       <c r="M32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12600</v>
+        <v>-183400</v>
       </c>
       <c r="E33" s="3">
-        <v>31000</v>
+        <v>5800</v>
       </c>
       <c r="F33" s="3">
-        <v>-4800</v>
+        <v>12500</v>
       </c>
       <c r="G33" s="3">
-        <v>-9900</v>
+        <v>30700</v>
       </c>
       <c r="H33" s="3">
-        <v>-7000</v>
+        <v>-4700</v>
       </c>
       <c r="I33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12600</v>
+        <v>-183400</v>
       </c>
       <c r="E35" s="3">
-        <v>31000</v>
+        <v>5800</v>
       </c>
       <c r="F35" s="3">
-        <v>-4800</v>
+        <v>12500</v>
       </c>
       <c r="G35" s="3">
-        <v>-9900</v>
+        <v>30700</v>
       </c>
       <c r="H35" s="3">
-        <v>-7000</v>
+        <v>-4700</v>
       </c>
       <c r="I35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1878,51 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>163800</v>
+        <v>59400</v>
       </c>
       <c r="E41" s="3">
-        <v>56400</v>
+        <v>99900</v>
       </c>
       <c r="F41" s="3">
-        <v>47200</v>
+        <v>162300</v>
       </c>
       <c r="G41" s="3">
-        <v>69200</v>
+        <v>55900</v>
       </c>
       <c r="H41" s="3">
-        <v>7800</v>
+        <v>46800</v>
       </c>
       <c r="I41" s="3">
+        <v>68500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,63 +1956,75 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F43" s="3">
         <v>4800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>800</v>
+      </c>
+      <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="E44" s="3">
-        <v>700</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>600</v>
+      </c>
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
@@ -1844,91 +2036,109 @@
         <v>200</v>
       </c>
       <c r="M44" s="3">
+        <v>300</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>205100</v>
+        <v>85800</v>
       </c>
       <c r="E45" s="3">
-        <v>137800</v>
+        <v>315900</v>
       </c>
       <c r="F45" s="3">
-        <v>60700</v>
+        <v>203300</v>
       </c>
       <c r="G45" s="3">
-        <v>44200</v>
+        <v>136500</v>
       </c>
       <c r="H45" s="3">
-        <v>2200</v>
+        <v>60200</v>
       </c>
       <c r="I45" s="3">
+        <v>43800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>374500</v>
+        <v>161100</v>
       </c>
       <c r="E46" s="3">
-        <v>199000</v>
+        <v>418400</v>
       </c>
       <c r="F46" s="3">
-        <v>111900</v>
+        <v>371100</v>
       </c>
       <c r="G46" s="3">
-        <v>117600</v>
+        <v>197200</v>
       </c>
       <c r="H46" s="3">
-        <v>12000</v>
+        <v>110900</v>
       </c>
       <c r="I46" s="3">
+        <v>116500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F47" s="3">
         <v>2700</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -1942,87 +2152,105 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>190800</v>
+        <v>315100</v>
       </c>
       <c r="E48" s="3">
-        <v>122000</v>
+        <v>247800</v>
       </c>
       <c r="F48" s="3">
-        <v>91600</v>
+        <v>189000</v>
       </c>
       <c r="G48" s="3">
-        <v>66100</v>
+        <v>120800</v>
       </c>
       <c r="H48" s="3">
-        <v>53700</v>
+        <v>90700</v>
       </c>
       <c r="I48" s="3">
+        <v>65500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K48" s="3">
         <v>51500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>53100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>53500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>56400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24300</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>24100</v>
+      </c>
+      <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>900</v>
       </c>
       <c r="M49" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>900</v>
+      </c>
+      <c r="O49" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2325,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115500</v>
+        <v>130700</v>
       </c>
       <c r="E52" s="3">
-        <v>99400</v>
+        <v>131500</v>
       </c>
       <c r="F52" s="3">
-        <v>97800</v>
+        <v>114400</v>
       </c>
       <c r="G52" s="3">
-        <v>29800</v>
+        <v>98500</v>
       </c>
       <c r="H52" s="3">
+        <v>96900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>29500</v>
+      </c>
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2500</v>
       </c>
       <c r="L52" s="3">
         <v>2100</v>
       </c>
       <c r="M52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O52" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2407,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>707800</v>
+        <v>611500</v>
       </c>
       <c r="E54" s="3">
-        <v>420600</v>
+        <v>826000</v>
       </c>
       <c r="F54" s="3">
-        <v>301600</v>
+        <v>701200</v>
       </c>
       <c r="G54" s="3">
-        <v>213900</v>
+        <v>416700</v>
       </c>
       <c r="H54" s="3">
-        <v>67400</v>
+        <v>298800</v>
       </c>
       <c r="I54" s="3">
+        <v>211900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K54" s="3">
         <v>59900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>62200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>64500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>67800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,209 +2486,241 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12900</v>
+        <v>8600</v>
       </c>
       <c r="E57" s="3">
-        <v>8300</v>
+        <v>13300</v>
       </c>
       <c r="F57" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3100</v>
       </c>
       <c r="M57" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>97300</v>
+        <v>108200</v>
       </c>
       <c r="E58" s="3">
-        <v>18800</v>
+        <v>165700</v>
       </c>
       <c r="F58" s="3">
-        <v>16700</v>
+        <v>96400</v>
       </c>
       <c r="G58" s="3">
-        <v>8400</v>
+        <v>18600</v>
       </c>
       <c r="H58" s="3">
-        <v>27100</v>
+        <v>16600</v>
       </c>
       <c r="I58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K58" s="3">
         <v>17500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>17000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21800</v>
+        <v>7900</v>
       </c>
       <c r="E59" s="3">
-        <v>9000</v>
+        <v>5600</v>
       </c>
       <c r="F59" s="3">
-        <v>5600</v>
+        <v>21600</v>
       </c>
       <c r="G59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+      <c r="J59" s="3">
+        <v>6400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>132000</v>
+        <v>124600</v>
       </c>
       <c r="E60" s="3">
-        <v>36100</v>
+        <v>184600</v>
       </c>
       <c r="F60" s="3">
-        <v>27800</v>
+        <v>130800</v>
       </c>
       <c r="G60" s="3">
-        <v>13500</v>
+        <v>35800</v>
       </c>
       <c r="H60" s="3">
-        <v>37100</v>
+        <v>27500</v>
       </c>
       <c r="I60" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K60" s="3">
         <v>20100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>19800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13200</v>
+        <v>51600</v>
       </c>
       <c r="E61" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G61" s="3">
         <v>8700</v>
       </c>
-      <c r="F61" s="3">
-        <v>11300</v>
-      </c>
-      <c r="G61" s="3">
-        <v>12300</v>
-      </c>
       <c r="H61" s="3">
-        <v>9900</v>
+        <v>11200</v>
       </c>
       <c r="I61" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K61" s="3">
         <v>14300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>11600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>20900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>26400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11300</v>
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G62" s="3">
         <v>8100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
@@ -2436,8 +2728,14 @@
       <c r="M62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>200</v>
+      </c>
+      <c r="O62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2851,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>156500</v>
+        <v>178300</v>
       </c>
       <c r="E66" s="3">
-        <v>53000</v>
+        <v>231800</v>
       </c>
       <c r="F66" s="3">
-        <v>39500</v>
+        <v>155100</v>
       </c>
       <c r="G66" s="3">
-        <v>28800</v>
+        <v>52500</v>
       </c>
       <c r="H66" s="3">
-        <v>47300</v>
+        <v>39200</v>
       </c>
       <c r="I66" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K66" s="3">
         <v>34700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>31600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>30300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>31800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +3073,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-177600</v>
       </c>
       <c r="E72" s="3">
-        <v>-12600</v>
+        <v>5800</v>
       </c>
       <c r="F72" s="3">
-        <v>-43600</v>
+        <v>0</v>
       </c>
       <c r="G72" s="3">
-        <v>-38800</v>
+        <v>-12500</v>
       </c>
       <c r="H72" s="3">
-        <v>-28900</v>
+        <v>-43200</v>
       </c>
       <c r="I72" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-21900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-15700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3237,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>551200</v>
+        <v>433200</v>
       </c>
       <c r="E76" s="3">
-        <v>367600</v>
+        <v>594200</v>
       </c>
       <c r="F76" s="3">
-        <v>262100</v>
+        <v>546100</v>
       </c>
       <c r="G76" s="3">
-        <v>185100</v>
+        <v>364200</v>
       </c>
       <c r="H76" s="3">
-        <v>20100</v>
+        <v>259700</v>
       </c>
       <c r="I76" s="3">
+        <v>183400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K76" s="3">
         <v>25200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>30500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>34200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>36000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12600</v>
+        <v>-183400</v>
       </c>
       <c r="E81" s="3">
-        <v>31000</v>
+        <v>5800</v>
       </c>
       <c r="F81" s="3">
-        <v>-4800</v>
+        <v>12500</v>
       </c>
       <c r="G81" s="3">
-        <v>-9900</v>
+        <v>30700</v>
       </c>
       <c r="H81" s="3">
-        <v>-7000</v>
+        <v>-4700</v>
       </c>
       <c r="I81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3427,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13400</v>
+        <v>23100</v>
       </c>
       <c r="E83" s="3">
-        <v>8200</v>
+        <v>16900</v>
       </c>
       <c r="F83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H83" s="3">
         <v>6400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7500</v>
       </c>
       <c r="K83" s="3">
         <v>3800</v>
       </c>
       <c r="L83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N83" s="3">
         <v>3400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3669,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8300</v>
+        <v>62200</v>
       </c>
       <c r="E89" s="3">
-        <v>-17600</v>
+        <v>-37800</v>
       </c>
       <c r="F89" s="3">
-        <v>-11600</v>
+        <v>-8200</v>
       </c>
       <c r="G89" s="3">
-        <v>-11000</v>
+        <v>-17500</v>
       </c>
       <c r="H89" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="J89" s="3">
         <v>4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3731,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36100</v>
+        <v>-53600</v>
       </c>
       <c r="E91" s="3">
-        <v>-37300</v>
+        <v>-29300</v>
       </c>
       <c r="F91" s="3">
-        <v>-28600</v>
+        <v>-35800</v>
       </c>
       <c r="G91" s="3">
-        <v>-9000</v>
+        <v>-37000</v>
       </c>
       <c r="H91" s="3">
-        <v>6400</v>
+        <v>-28300</v>
       </c>
       <c r="I91" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>3500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3850,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-109100</v>
+        <v>-71600</v>
       </c>
       <c r="E94" s="3">
-        <v>-38300</v>
+        <v>-143500</v>
       </c>
       <c r="F94" s="3">
-        <v>-95700</v>
+        <v>-108100</v>
       </c>
       <c r="G94" s="3">
-        <v>-37500</v>
+        <v>-37900</v>
       </c>
       <c r="H94" s="3">
-        <v>800</v>
+        <v>-94800</v>
       </c>
       <c r="I94" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1100</v>
       </c>
       <c r="L94" s="3">
         <v>-3400</v>
       </c>
       <c r="M94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="O94" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +4072,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>224800</v>
+        <v>-31100</v>
       </c>
       <c r="E100" s="3">
-        <v>65100</v>
+        <v>118800</v>
       </c>
       <c r="F100" s="3">
-        <v>85300</v>
+        <v>222800</v>
       </c>
       <c r="G100" s="3">
-        <v>109900</v>
+        <v>64500</v>
       </c>
       <c r="H100" s="3">
+        <v>84600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>108900</v>
+      </c>
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3642,53 +4140,65 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>107400</v>
+        <v>-40500</v>
       </c>
       <c r="E102" s="3">
-        <v>9200</v>
+        <v>-62400</v>
       </c>
       <c r="F102" s="3">
-        <v>-21900</v>
+        <v>106400</v>
       </c>
       <c r="G102" s="3">
-        <v>61400</v>
+        <v>9100</v>
       </c>
       <c r="H102" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>60900</v>
+      </c>
+      <c r="J102" s="3">
         <v>6000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
@@ -733,25 +733,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54000</v>
+        <v>55700</v>
       </c>
       <c r="E8" s="3">
-        <v>52100</v>
+        <v>53700</v>
       </c>
       <c r="F8" s="3">
-        <v>77000</v>
+        <v>79400</v>
       </c>
       <c r="G8" s="3">
-        <v>57900</v>
+        <v>59700</v>
       </c>
       <c r="H8" s="3">
-        <v>47400</v>
+        <v>48900</v>
       </c>
       <c r="I8" s="3">
-        <v>36700</v>
+        <v>37800</v>
       </c>
       <c r="J8" s="3">
-        <v>14600</v>
+        <v>15000</v>
       </c>
       <c r="K8" s="3">
         <v>8900</v>
@@ -774,25 +774,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41800</v>
+        <v>43000</v>
       </c>
       <c r="E9" s="3">
-        <v>30100</v>
+        <v>31000</v>
       </c>
       <c r="F9" s="3">
-        <v>26600</v>
+        <v>27500</v>
       </c>
       <c r="G9" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="H9" s="3">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="I9" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="J9" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="K9" s="3">
         <v>10200</v>
@@ -815,25 +815,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="E10" s="3">
-        <v>22000</v>
+        <v>22700</v>
       </c>
       <c r="F10" s="3">
-        <v>50400</v>
+        <v>51900</v>
       </c>
       <c r="G10" s="3">
-        <v>38100</v>
+        <v>39300</v>
       </c>
       <c r="H10" s="3">
-        <v>30200</v>
+        <v>31100</v>
       </c>
       <c r="I10" s="3">
-        <v>24900</v>
+        <v>25700</v>
       </c>
       <c r="J10" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K10" s="3">
         <v>-1300</v>
@@ -955,16 +955,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G14" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1051,25 +1051,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>276500</v>
+        <v>284900</v>
       </c>
       <c r="E17" s="3">
-        <v>43300</v>
+        <v>44600</v>
       </c>
       <c r="F17" s="3">
-        <v>58600</v>
+        <v>60400</v>
       </c>
       <c r="G17" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="H17" s="3">
-        <v>50100</v>
+        <v>51600</v>
       </c>
       <c r="I17" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="J17" s="3">
-        <v>13900</v>
+        <v>14300</v>
       </c>
       <c r="K17" s="3">
         <v>12600</v>
@@ -1092,22 +1092,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-222500</v>
+        <v>-229300</v>
       </c>
       <c r="E18" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="F18" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="G18" s="3">
-        <v>44200</v>
+        <v>45500</v>
       </c>
       <c r="H18" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="I18" s="3">
-        <v>21200</v>
+        <v>21900</v>
       </c>
       <c r="J18" s="3">
         <v>700</v>
@@ -1150,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20000</v>
+        <v>20600</v>
       </c>
       <c r="E20" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="F20" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="G20" s="3">
         <v>1700</v>
@@ -1165,10 +1165,10 @@
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>-29000</v>
+        <v>-29900</v>
       </c>
       <c r="J20" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="K20" s="3">
         <v>-600</v>
@@ -1191,25 +1191,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-179400</v>
+        <v>-184900</v>
       </c>
       <c r="E21" s="3">
-        <v>34900</v>
+        <v>36000</v>
       </c>
       <c r="F21" s="3">
-        <v>37600</v>
+        <v>38700</v>
       </c>
       <c r="G21" s="3">
-        <v>54000</v>
+        <v>55600</v>
       </c>
       <c r="H21" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="I21" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J21" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="K21" s="3">
         <v>-500</v>
@@ -1232,10 +1232,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="E22" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
@@ -1273,25 +1273,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-208400</v>
+        <v>-214700</v>
       </c>
       <c r="E23" s="3">
-        <v>14200</v>
+        <v>14600</v>
       </c>
       <c r="F23" s="3">
-        <v>23200</v>
+        <v>23900</v>
       </c>
       <c r="G23" s="3">
-        <v>44900</v>
+        <v>46200</v>
       </c>
       <c r="H23" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I23" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="J23" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="K23" s="3">
         <v>-6200</v>
@@ -1314,16 +1314,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-25000</v>
+        <v>-25700</v>
       </c>
       <c r="E24" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="F24" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="G24" s="3">
-        <v>14200</v>
+        <v>14600</v>
       </c>
       <c r="H24" s="3">
         <v>800</v>
@@ -1396,25 +1396,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-183400</v>
+        <v>-189000</v>
       </c>
       <c r="E26" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="F26" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="G26" s="3">
-        <v>30700</v>
+        <v>31600</v>
       </c>
       <c r="H26" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="I26" s="3">
-        <v>-9800</v>
+        <v>-10100</v>
       </c>
       <c r="J26" s="3">
-        <v>-6900</v>
+        <v>-7200</v>
       </c>
       <c r="K26" s="3">
         <v>-6200</v>
@@ -1437,25 +1437,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-183400</v>
+        <v>-189000</v>
       </c>
       <c r="E27" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="F27" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="G27" s="3">
-        <v>30700</v>
+        <v>31600</v>
       </c>
       <c r="H27" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="I27" s="3">
-        <v>-9800</v>
+        <v>-10100</v>
       </c>
       <c r="J27" s="3">
-        <v>-6900</v>
+        <v>-7200</v>
       </c>
       <c r="K27" s="3">
         <v>-6200</v>
@@ -1642,13 +1642,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20000</v>
+        <v>-20600</v>
       </c>
       <c r="E32" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="F32" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="G32" s="3">
         <v>-1700</v>
@@ -1657,10 +1657,10 @@
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>29000</v>
+        <v>29900</v>
       </c>
       <c r="J32" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="K32" s="3">
         <v>600</v>
@@ -1683,25 +1683,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-183400</v>
+        <v>-189000</v>
       </c>
       <c r="E33" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="F33" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="G33" s="3">
-        <v>30700</v>
+        <v>31600</v>
       </c>
       <c r="H33" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="I33" s="3">
-        <v>-9800</v>
+        <v>-10100</v>
       </c>
       <c r="J33" s="3">
-        <v>-6900</v>
+        <v>-7200</v>
       </c>
       <c r="K33" s="3">
         <v>-6200</v>
@@ -1765,25 +1765,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-183400</v>
+        <v>-189000</v>
       </c>
       <c r="E35" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="F35" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="G35" s="3">
-        <v>30700</v>
+        <v>31600</v>
       </c>
       <c r="H35" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="I35" s="3">
-        <v>-9800</v>
+        <v>-10100</v>
       </c>
       <c r="J35" s="3">
-        <v>-6900</v>
+        <v>-7200</v>
       </c>
       <c r="K35" s="3">
         <v>-6200</v>
@@ -1886,25 +1886,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59400</v>
+        <v>61200</v>
       </c>
       <c r="E41" s="3">
-        <v>99900</v>
+        <v>102900</v>
       </c>
       <c r="F41" s="3">
-        <v>162300</v>
+        <v>167300</v>
       </c>
       <c r="G41" s="3">
-        <v>55900</v>
+        <v>57600</v>
       </c>
       <c r="H41" s="3">
-        <v>46800</v>
+        <v>48200</v>
       </c>
       <c r="I41" s="3">
-        <v>68500</v>
+        <v>70600</v>
       </c>
       <c r="J41" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="K41" s="3">
         <v>1700</v>
@@ -1968,25 +1968,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="E43" s="3">
         <v>1800</v>
       </c>
       <c r="F43" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G43" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H43" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I43" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J43" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K43" s="3">
         <v>1900</v>
@@ -2018,7 +2018,7 @@
         <v>700</v>
       </c>
       <c r="G44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
@@ -2050,25 +2050,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>85800</v>
+        <v>88400</v>
       </c>
       <c r="E45" s="3">
-        <v>315900</v>
+        <v>325600</v>
       </c>
       <c r="F45" s="3">
-        <v>203300</v>
+        <v>209500</v>
       </c>
       <c r="G45" s="3">
-        <v>136500</v>
+        <v>140700</v>
       </c>
       <c r="H45" s="3">
-        <v>60200</v>
+        <v>62000</v>
       </c>
       <c r="I45" s="3">
-        <v>43800</v>
+        <v>45100</v>
       </c>
       <c r="J45" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K45" s="3">
         <v>2000</v>
@@ -2091,25 +2091,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>161100</v>
+        <v>166000</v>
       </c>
       <c r="E46" s="3">
-        <v>418400</v>
+        <v>431200</v>
       </c>
       <c r="F46" s="3">
-        <v>371100</v>
+        <v>382400</v>
       </c>
       <c r="G46" s="3">
-        <v>197200</v>
+        <v>203200</v>
       </c>
       <c r="H46" s="3">
-        <v>110900</v>
+        <v>114200</v>
       </c>
       <c r="I46" s="3">
-        <v>116500</v>
+        <v>120100</v>
       </c>
       <c r="J46" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="K46" s="3">
         <v>5800</v>
@@ -2132,13 +2132,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E47" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="F47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2173,25 +2173,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>315100</v>
+        <v>324700</v>
       </c>
       <c r="E48" s="3">
-        <v>247800</v>
+        <v>255400</v>
       </c>
       <c r="F48" s="3">
-        <v>189000</v>
+        <v>194800</v>
       </c>
       <c r="G48" s="3">
-        <v>120800</v>
+        <v>124500</v>
       </c>
       <c r="H48" s="3">
-        <v>90700</v>
+        <v>93500</v>
       </c>
       <c r="I48" s="3">
-        <v>65500</v>
+        <v>67500</v>
       </c>
       <c r="J48" s="3">
-        <v>53200</v>
+        <v>54900</v>
       </c>
       <c r="K48" s="3">
         <v>51500</v>
@@ -2214,13 +2214,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E49" s="3">
-        <v>24900</v>
+        <v>25600</v>
       </c>
       <c r="F49" s="3">
-        <v>24100</v>
+        <v>24800</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -2337,22 +2337,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>130700</v>
+        <v>134700</v>
       </c>
       <c r="E52" s="3">
-        <v>131500</v>
+        <v>135500</v>
       </c>
       <c r="F52" s="3">
-        <v>114400</v>
+        <v>117900</v>
       </c>
       <c r="G52" s="3">
-        <v>98500</v>
+        <v>101500</v>
       </c>
       <c r="H52" s="3">
-        <v>96900</v>
+        <v>99900</v>
       </c>
       <c r="I52" s="3">
-        <v>29500</v>
+        <v>30400</v>
       </c>
       <c r="J52" s="3">
         <v>1300</v>
@@ -2419,25 +2419,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>611500</v>
+        <v>630100</v>
       </c>
       <c r="E54" s="3">
-        <v>826000</v>
+        <v>851200</v>
       </c>
       <c r="F54" s="3">
-        <v>701200</v>
+        <v>722600</v>
       </c>
       <c r="G54" s="3">
-        <v>416700</v>
+        <v>429400</v>
       </c>
       <c r="H54" s="3">
-        <v>298800</v>
+        <v>307900</v>
       </c>
       <c r="I54" s="3">
-        <v>211900</v>
+        <v>218400</v>
       </c>
       <c r="J54" s="3">
-        <v>66800</v>
+        <v>68900</v>
       </c>
       <c r="K54" s="3">
         <v>59900</v>
@@ -2494,25 +2494,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="E57" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="F57" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="G57" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="H57" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="I57" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="J57" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K57" s="3">
         <v>2600</v>
@@ -2535,25 +2535,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>108200</v>
+        <v>111500</v>
       </c>
       <c r="E58" s="3">
-        <v>165700</v>
+        <v>170800</v>
       </c>
       <c r="F58" s="3">
-        <v>96400</v>
+        <v>99400</v>
       </c>
       <c r="G58" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="H58" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="I58" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="J58" s="3">
-        <v>26900</v>
+        <v>27700</v>
       </c>
       <c r="K58" s="3">
         <v>17500</v>
@@ -2576,25 +2576,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="E59" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="F59" s="3">
-        <v>21600</v>
+        <v>22200</v>
       </c>
       <c r="G59" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="H59" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="I59" s="3">
         <v>1000</v>
       </c>
       <c r="J59" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -2617,25 +2617,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>124600</v>
+        <v>128400</v>
       </c>
       <c r="E60" s="3">
-        <v>184600</v>
+        <v>190200</v>
       </c>
       <c r="F60" s="3">
-        <v>130800</v>
+        <v>134700</v>
       </c>
       <c r="G60" s="3">
-        <v>35800</v>
+        <v>36900</v>
       </c>
       <c r="H60" s="3">
-        <v>27500</v>
+        <v>28400</v>
       </c>
       <c r="I60" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="J60" s="3">
-        <v>36800</v>
+        <v>37900</v>
       </c>
       <c r="K60" s="3">
         <v>20100</v>
@@ -2658,25 +2658,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>51600</v>
+        <v>53200</v>
       </c>
       <c r="E61" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="F61" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="G61" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="H61" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="I61" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="J61" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="K61" s="3">
         <v>14300</v>
@@ -2702,19 +2702,19 @@
         <v>2100</v>
       </c>
       <c r="E62" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="F62" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="G62" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -2863,25 +2863,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>178300</v>
+        <v>183700</v>
       </c>
       <c r="E66" s="3">
-        <v>231800</v>
+        <v>238900</v>
       </c>
       <c r="F66" s="3">
-        <v>155100</v>
+        <v>159800</v>
       </c>
       <c r="G66" s="3">
-        <v>52500</v>
+        <v>54100</v>
       </c>
       <c r="H66" s="3">
-        <v>39200</v>
+        <v>40300</v>
       </c>
       <c r="I66" s="3">
-        <v>28600</v>
+        <v>29400</v>
       </c>
       <c r="J66" s="3">
-        <v>46900</v>
+        <v>48300</v>
       </c>
       <c r="K66" s="3">
         <v>34700</v>
@@ -3085,25 +3085,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-177600</v>
+        <v>-183000</v>
       </c>
       <c r="E72" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
       </c>
       <c r="G72" s="3">
-        <v>-12500</v>
+        <v>-12900</v>
       </c>
       <c r="H72" s="3">
-        <v>-43200</v>
+        <v>-44500</v>
       </c>
       <c r="I72" s="3">
-        <v>-38400</v>
+        <v>-39600</v>
       </c>
       <c r="J72" s="3">
-        <v>-28600</v>
+        <v>-29500</v>
       </c>
       <c r="K72" s="3">
         <v>-21900</v>
@@ -3249,25 +3249,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>433200</v>
+        <v>446400</v>
       </c>
       <c r="E76" s="3">
-        <v>594200</v>
+        <v>612300</v>
       </c>
       <c r="F76" s="3">
-        <v>546100</v>
+        <v>562800</v>
       </c>
       <c r="G76" s="3">
-        <v>364200</v>
+        <v>375300</v>
       </c>
       <c r="H76" s="3">
-        <v>259700</v>
+        <v>267600</v>
       </c>
       <c r="I76" s="3">
-        <v>183400</v>
+        <v>189000</v>
       </c>
       <c r="J76" s="3">
-        <v>20000</v>
+        <v>20600</v>
       </c>
       <c r="K76" s="3">
         <v>25200</v>
@@ -3377,25 +3377,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-183400</v>
+        <v>-189000</v>
       </c>
       <c r="E81" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="F81" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="G81" s="3">
-        <v>30700</v>
+        <v>31600</v>
       </c>
       <c r="H81" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="I81" s="3">
-        <v>-9800</v>
+        <v>-10100</v>
       </c>
       <c r="J81" s="3">
-        <v>-6900</v>
+        <v>-7200</v>
       </c>
       <c r="K81" s="3">
         <v>-6200</v>
@@ -3435,25 +3435,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="E83" s="3">
-        <v>16900</v>
+        <v>17400</v>
       </c>
       <c r="F83" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="G83" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="H83" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="I83" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J83" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K83" s="3">
         <v>3800</v>
@@ -3681,25 +3681,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62200</v>
+        <v>64100</v>
       </c>
       <c r="E89" s="3">
-        <v>-37800</v>
+        <v>-38900</v>
       </c>
       <c r="F89" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="G89" s="3">
-        <v>-17500</v>
+        <v>-18000</v>
       </c>
       <c r="H89" s="3">
-        <v>-11500</v>
+        <v>-11800</v>
       </c>
       <c r="I89" s="3">
-        <v>-10900</v>
+        <v>-11200</v>
       </c>
       <c r="J89" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K89" s="3">
         <v>2200</v>
@@ -3739,25 +3739,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53600</v>
+        <v>-55300</v>
       </c>
       <c r="E91" s="3">
-        <v>-29300</v>
+        <v>-30200</v>
       </c>
       <c r="F91" s="3">
-        <v>-35800</v>
+        <v>-36900</v>
       </c>
       <c r="G91" s="3">
-        <v>-37000</v>
+        <v>-38100</v>
       </c>
       <c r="H91" s="3">
-        <v>-28300</v>
+        <v>-29200</v>
       </c>
       <c r="I91" s="3">
-        <v>-8900</v>
+        <v>-9200</v>
       </c>
       <c r="J91" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="K91" s="3">
         <v>-2200</v>
@@ -3862,25 +3862,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71600</v>
+        <v>-73800</v>
       </c>
       <c r="E94" s="3">
-        <v>-143500</v>
+        <v>-147800</v>
       </c>
       <c r="F94" s="3">
-        <v>-108100</v>
+        <v>-111400</v>
       </c>
       <c r="G94" s="3">
-        <v>-37900</v>
+        <v>-39100</v>
       </c>
       <c r="H94" s="3">
-        <v>-94800</v>
+        <v>-97700</v>
       </c>
       <c r="I94" s="3">
-        <v>-37200</v>
+        <v>-38300</v>
       </c>
       <c r="J94" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K94" s="3">
         <v>-2000</v>
@@ -4084,22 +4084,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31100</v>
+        <v>-32000</v>
       </c>
       <c r="E100" s="3">
-        <v>118800</v>
+        <v>122400</v>
       </c>
       <c r="F100" s="3">
-        <v>222800</v>
+        <v>229600</v>
       </c>
       <c r="G100" s="3">
-        <v>64500</v>
+        <v>66500</v>
       </c>
       <c r="H100" s="3">
-        <v>84600</v>
+        <v>87100</v>
       </c>
       <c r="I100" s="3">
-        <v>108900</v>
+        <v>112200</v>
       </c>
       <c r="J100" s="3">
         <v>1300</v>
@@ -4166,25 +4166,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-40500</v>
+        <v>-41700</v>
       </c>
       <c r="E102" s="3">
-        <v>-62400</v>
+        <v>-64300</v>
       </c>
       <c r="F102" s="3">
-        <v>106400</v>
+        <v>109600</v>
       </c>
       <c r="G102" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H102" s="3">
-        <v>-21700</v>
+        <v>-22400</v>
       </c>
       <c r="I102" s="3">
-        <v>60900</v>
+        <v>62700</v>
       </c>
       <c r="J102" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>BITF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>57800</v>
+      </c>
+      <c r="F8" s="3">
         <v>55700</v>
       </c>
-      <c r="E8" s="3">
-        <v>53700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>79400</v>
-      </c>
       <c r="G8" s="3">
-        <v>59700</v>
+        <v>82400</v>
       </c>
       <c r="H8" s="3">
-        <v>48900</v>
+        <v>61900</v>
       </c>
       <c r="I8" s="3">
-        <v>37800</v>
+        <v>50700</v>
       </c>
       <c r="J8" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K8" s="3">
         <v>15000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>43000</v>
+        <v>51400</v>
       </c>
       <c r="E9" s="3">
-        <v>31000</v>
+        <v>44700</v>
       </c>
       <c r="F9" s="3">
-        <v>27500</v>
+        <v>32200</v>
       </c>
       <c r="G9" s="3">
-        <v>20400</v>
+        <v>28500</v>
       </c>
       <c r="H9" s="3">
-        <v>17800</v>
+        <v>21200</v>
       </c>
       <c r="I9" s="3">
-        <v>12100</v>
+        <v>18400</v>
       </c>
       <c r="J9" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K9" s="3">
         <v>11400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>29900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12600</v>
+        <v>-5500</v>
       </c>
       <c r="E10" s="3">
-        <v>22700</v>
+        <v>13100</v>
       </c>
       <c r="F10" s="3">
-        <v>51900</v>
+        <v>23500</v>
       </c>
       <c r="G10" s="3">
-        <v>39300</v>
+        <v>53900</v>
       </c>
       <c r="H10" s="3">
-        <v>31100</v>
+        <v>40800</v>
       </c>
       <c r="I10" s="3">
-        <v>25700</v>
+        <v>32300</v>
       </c>
       <c r="J10" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-8300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,31 +966,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23800</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>116300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>2400</v>
-      </c>
       <c r="G14" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>2500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-2600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -981,17 +1001,20 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>284900</v>
+        <v>180100</v>
       </c>
       <c r="E17" s="3">
-        <v>44600</v>
+        <v>295800</v>
       </c>
       <c r="F17" s="3">
-        <v>60400</v>
+        <v>46300</v>
       </c>
       <c r="G17" s="3">
-        <v>14100</v>
+        <v>62700</v>
       </c>
       <c r="H17" s="3">
-        <v>51600</v>
+        <v>14700</v>
       </c>
       <c r="I17" s="3">
-        <v>15900</v>
+        <v>53600</v>
       </c>
       <c r="J17" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K17" s="3">
         <v>14300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-229300</v>
+        <v>-134200</v>
       </c>
       <c r="E18" s="3">
-        <v>9100</v>
+        <v>-238000</v>
       </c>
       <c r="F18" s="3">
-        <v>19000</v>
+        <v>9400</v>
       </c>
       <c r="G18" s="3">
-        <v>45500</v>
+        <v>19700</v>
       </c>
       <c r="H18" s="3">
-        <v>-2800</v>
+        <v>47300</v>
       </c>
       <c r="I18" s="3">
-        <v>21900</v>
+        <v>-2900</v>
       </c>
       <c r="J18" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20600</v>
+        <v>15100</v>
       </c>
       <c r="E20" s="3">
-        <v>9500</v>
+        <v>21400</v>
       </c>
       <c r="F20" s="3">
-        <v>6000</v>
+        <v>9900</v>
       </c>
       <c r="G20" s="3">
-        <v>1700</v>
+        <v>6300</v>
       </c>
       <c r="H20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>-29900</v>
-      </c>
       <c r="J20" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-184900</v>
+        <v>-90500</v>
       </c>
       <c r="E21" s="3">
-        <v>36000</v>
+        <v>-192000</v>
       </c>
       <c r="F21" s="3">
-        <v>38700</v>
+        <v>37400</v>
       </c>
       <c r="G21" s="3">
-        <v>55600</v>
+        <v>40200</v>
       </c>
       <c r="H21" s="3">
-        <v>3700</v>
+        <v>57700</v>
       </c>
       <c r="I21" s="3">
-        <v>-4000</v>
+        <v>3800</v>
       </c>
       <c r="J21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6100</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="F22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H22" s="3">
         <v>1100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1200</v>
       </c>
       <c r="I22" s="3">
         <v>1200</v>
       </c>
       <c r="J22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-214700</v>
+        <v>-123800</v>
       </c>
       <c r="E23" s="3">
-        <v>14600</v>
+        <v>-222900</v>
       </c>
       <c r="F23" s="3">
-        <v>23900</v>
+        <v>15200</v>
       </c>
       <c r="G23" s="3">
-        <v>46200</v>
+        <v>24800</v>
       </c>
       <c r="H23" s="3">
-        <v>-4100</v>
+        <v>48000</v>
       </c>
       <c r="I23" s="3">
-        <v>-9200</v>
+        <v>-4200</v>
       </c>
       <c r="J23" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-25700</v>
+        <v>-6500</v>
       </c>
       <c r="E24" s="3">
-        <v>8600</v>
+        <v>-26700</v>
       </c>
       <c r="F24" s="3">
-        <v>11000</v>
+        <v>8900</v>
       </c>
       <c r="G24" s="3">
-        <v>14600</v>
+        <v>11400</v>
       </c>
       <c r="H24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
       </c>
       <c r="N24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O24" s="3">
         <v>-3300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-189000</v>
+        <v>-117300</v>
       </c>
       <c r="E26" s="3">
-        <v>6000</v>
+        <v>-196200</v>
       </c>
       <c r="F26" s="3">
-        <v>12900</v>
+        <v>6200</v>
       </c>
       <c r="G26" s="3">
-        <v>31600</v>
+        <v>13400</v>
       </c>
       <c r="H26" s="3">
-        <v>-4900</v>
+        <v>32800</v>
       </c>
       <c r="I26" s="3">
-        <v>-10100</v>
+        <v>-5100</v>
       </c>
       <c r="J26" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-189000</v>
+        <v>-117300</v>
       </c>
       <c r="E27" s="3">
-        <v>6000</v>
+        <v>-196200</v>
       </c>
       <c r="F27" s="3">
-        <v>12900</v>
+        <v>6200</v>
       </c>
       <c r="G27" s="3">
-        <v>31600</v>
+        <v>13400</v>
       </c>
       <c r="H27" s="3">
-        <v>-4900</v>
+        <v>32800</v>
       </c>
       <c r="I27" s="3">
-        <v>-10100</v>
+        <v>-5100</v>
       </c>
       <c r="J27" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20600</v>
+        <v>-15100</v>
       </c>
       <c r="E32" s="3">
-        <v>-9500</v>
+        <v>-21400</v>
       </c>
       <c r="F32" s="3">
-        <v>-6000</v>
+        <v>-9900</v>
       </c>
       <c r="G32" s="3">
-        <v>-1700</v>
+        <v>-6300</v>
       </c>
       <c r="H32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>29900</v>
-      </c>
       <c r="J32" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K32" s="3">
         <v>5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-189000</v>
+        <v>-117300</v>
       </c>
       <c r="E33" s="3">
-        <v>6000</v>
+        <v>-196200</v>
       </c>
       <c r="F33" s="3">
-        <v>12900</v>
+        <v>6200</v>
       </c>
       <c r="G33" s="3">
-        <v>31600</v>
+        <v>13400</v>
       </c>
       <c r="H33" s="3">
-        <v>-4900</v>
+        <v>32800</v>
       </c>
       <c r="I33" s="3">
-        <v>-10100</v>
+        <v>-5100</v>
       </c>
       <c r="J33" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-189000</v>
+        <v>-117300</v>
       </c>
       <c r="E35" s="3">
-        <v>6000</v>
+        <v>-196200</v>
       </c>
       <c r="F35" s="3">
-        <v>12900</v>
+        <v>6200</v>
       </c>
       <c r="G35" s="3">
-        <v>31600</v>
+        <v>13400</v>
       </c>
       <c r="H35" s="3">
-        <v>-4900</v>
+        <v>32800</v>
       </c>
       <c r="I35" s="3">
-        <v>-10100</v>
+        <v>-5100</v>
       </c>
       <c r="J35" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61200</v>
+        <v>49500</v>
       </c>
       <c r="E41" s="3">
-        <v>102900</v>
+        <v>63600</v>
       </c>
       <c r="F41" s="3">
-        <v>167300</v>
+        <v>106900</v>
       </c>
       <c r="G41" s="3">
-        <v>57600</v>
+        <v>173700</v>
       </c>
       <c r="H41" s="3">
-        <v>48200</v>
+        <v>59800</v>
       </c>
       <c r="I41" s="3">
-        <v>70600</v>
+        <v>50100</v>
       </c>
       <c r="J41" s="3">
+        <v>73300</v>
+      </c>
+      <c r="K41" s="3">
         <v>7900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,49 +2052,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15600</v>
+        <v>22000</v>
       </c>
       <c r="E43" s="3">
-        <v>1800</v>
+        <v>16200</v>
       </c>
       <c r="F43" s="3">
-        <v>4900</v>
+        <v>1900</v>
       </c>
       <c r="G43" s="3">
-        <v>4200</v>
+        <v>5100</v>
       </c>
       <c r="H43" s="3">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="I43" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="J43" s="3">
-        <v>1900</v>
+        <v>4000</v>
       </c>
       <c r="K43" s="3">
         <v>1900</v>
       </c>
       <c r="L43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2015,133 +2111,142 @@
         <v>800</v>
       </c>
       <c r="F44" s="3">
+        <v>900</v>
+      </c>
+      <c r="G44" s="3">
+        <v>800</v>
+      </c>
+      <c r="H44" s="3">
         <v>700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>400</v>
       </c>
       <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>88400</v>
+        <v>69800</v>
       </c>
       <c r="E45" s="3">
-        <v>325600</v>
+        <v>91700</v>
       </c>
       <c r="F45" s="3">
-        <v>209500</v>
+        <v>338000</v>
       </c>
       <c r="G45" s="3">
-        <v>140700</v>
+        <v>217500</v>
       </c>
       <c r="H45" s="3">
-        <v>62000</v>
+        <v>146100</v>
       </c>
       <c r="I45" s="3">
-        <v>45100</v>
+        <v>64400</v>
       </c>
       <c r="J45" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>166000</v>
+        <v>142200</v>
       </c>
       <c r="E46" s="3">
-        <v>431200</v>
+        <v>172400</v>
       </c>
       <c r="F46" s="3">
-        <v>382400</v>
+        <v>447700</v>
       </c>
       <c r="G46" s="3">
-        <v>203200</v>
+        <v>397000</v>
       </c>
       <c r="H46" s="3">
-        <v>114200</v>
+        <v>210900</v>
       </c>
       <c r="I46" s="3">
-        <v>120100</v>
+        <v>118600</v>
       </c>
       <c r="J46" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K46" s="3">
         <v>12200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F47" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+        <v>3700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2158,8 +2263,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2167,90 +2272,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>324700</v>
+        <v>325600</v>
       </c>
       <c r="E48" s="3">
-        <v>255400</v>
+        <v>337100</v>
       </c>
       <c r="F48" s="3">
-        <v>194800</v>
+        <v>265100</v>
       </c>
       <c r="G48" s="3">
-        <v>124500</v>
+        <v>202200</v>
       </c>
       <c r="H48" s="3">
-        <v>93500</v>
+        <v>129300</v>
       </c>
       <c r="I48" s="3">
-        <v>67500</v>
+        <v>97100</v>
       </c>
       <c r="J48" s="3">
+        <v>70100</v>
+      </c>
+      <c r="K48" s="3">
         <v>54900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>51500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>53100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>53500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>56400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1100</v>
       </c>
-      <c r="E49" s="3">
-        <v>25600</v>
-      </c>
       <c r="F49" s="3">
-        <v>24800</v>
+        <v>26600</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>25800</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
       </c>
       <c r="I49" s="3">
+        <v>300</v>
+      </c>
+      <c r="J49" s="3">
         <v>400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>134700</v>
+        <v>50600</v>
       </c>
       <c r="E52" s="3">
-        <v>135500</v>
+        <v>139900</v>
       </c>
       <c r="F52" s="3">
-        <v>117900</v>
+        <v>140600</v>
       </c>
       <c r="G52" s="3">
-        <v>101500</v>
+        <v>122400</v>
       </c>
       <c r="H52" s="3">
-        <v>99900</v>
+        <v>105400</v>
       </c>
       <c r="I52" s="3">
-        <v>30400</v>
+        <v>103700</v>
       </c>
       <c r="J52" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>630100</v>
+        <v>521200</v>
       </c>
       <c r="E54" s="3">
-        <v>851200</v>
+        <v>654200</v>
       </c>
       <c r="F54" s="3">
-        <v>722600</v>
+        <v>883700</v>
       </c>
       <c r="G54" s="3">
-        <v>429400</v>
+        <v>750200</v>
       </c>
       <c r="H54" s="3">
-        <v>307900</v>
+        <v>445800</v>
       </c>
       <c r="I54" s="3">
-        <v>218400</v>
+        <v>319700</v>
       </c>
       <c r="J54" s="3">
+        <v>226800</v>
+      </c>
+      <c r="K54" s="3">
         <v>68900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>62200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>64500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>67800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,116 +2618,123 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>14200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H57" s="3">
         <v>8800</v>
       </c>
-      <c r="E57" s="3">
-        <v>13700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>13100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>8500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>5600</v>
-      </c>
       <c r="I57" s="3">
-        <v>4200</v>
+        <v>5800</v>
       </c>
       <c r="J57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2800</v>
       </c>
       <c r="M57" s="3">
         <v>2800</v>
       </c>
       <c r="N57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>111500</v>
+        <v>91300</v>
       </c>
       <c r="E58" s="3">
-        <v>170800</v>
+        <v>115700</v>
       </c>
       <c r="F58" s="3">
-        <v>99400</v>
+        <v>177300</v>
       </c>
       <c r="G58" s="3">
-        <v>19200</v>
+        <v>103200</v>
       </c>
       <c r="H58" s="3">
-        <v>17100</v>
+        <v>19900</v>
       </c>
       <c r="I58" s="3">
-        <v>8600</v>
+        <v>17700</v>
       </c>
       <c r="J58" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K58" s="3">
         <v>27700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8100</v>
+        <v>9700</v>
       </c>
       <c r="E59" s="3">
-        <v>5800</v>
+        <v>8400</v>
       </c>
       <c r="F59" s="3">
-        <v>22200</v>
+        <v>6000</v>
       </c>
       <c r="G59" s="3">
-        <v>9200</v>
+        <v>23100</v>
       </c>
       <c r="H59" s="3">
-        <v>5700</v>
+        <v>9500</v>
       </c>
       <c r="I59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6600</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
@@ -2605,125 +2742,134 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>128400</v>
+        <v>113500</v>
       </c>
       <c r="E60" s="3">
-        <v>190200</v>
+        <v>133300</v>
       </c>
       <c r="F60" s="3">
-        <v>134700</v>
+        <v>197500</v>
       </c>
       <c r="G60" s="3">
-        <v>36900</v>
+        <v>139900</v>
       </c>
       <c r="H60" s="3">
-        <v>28400</v>
+        <v>38300</v>
       </c>
       <c r="I60" s="3">
-        <v>13700</v>
+        <v>29500</v>
       </c>
       <c r="J60" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K60" s="3">
         <v>37900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53200</v>
+        <v>41600</v>
       </c>
       <c r="E61" s="3">
-        <v>33000</v>
+        <v>55200</v>
       </c>
       <c r="F61" s="3">
-        <v>13500</v>
+        <v>34200</v>
       </c>
       <c r="G61" s="3">
-        <v>8900</v>
+        <v>14000</v>
       </c>
       <c r="H61" s="3">
-        <v>11500</v>
+        <v>9300</v>
       </c>
       <c r="I61" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="J61" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K61" s="3">
         <v>10100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="E62" s="3">
-        <v>15700</v>
+        <v>2200</v>
       </c>
       <c r="F62" s="3">
-        <v>11600</v>
+        <v>16300</v>
       </c>
       <c r="G62" s="3">
-        <v>8300</v>
+        <v>12000</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>8600</v>
       </c>
       <c r="I62" s="3">
-        <v>3100</v>
+        <v>500</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>3200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>183700</v>
+        <v>157500</v>
       </c>
       <c r="E66" s="3">
-        <v>238900</v>
+        <v>190700</v>
       </c>
       <c r="F66" s="3">
-        <v>159800</v>
+        <v>248000</v>
       </c>
       <c r="G66" s="3">
-        <v>54100</v>
+        <v>165900</v>
       </c>
       <c r="H66" s="3">
-        <v>40300</v>
+        <v>56200</v>
       </c>
       <c r="I66" s="3">
-        <v>29400</v>
+        <v>41900</v>
       </c>
       <c r="J66" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K66" s="3">
         <v>48300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-183000</v>
+        <v>-307300</v>
       </c>
       <c r="E72" s="3">
-        <v>6000</v>
+        <v>-190000</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="G72" s="3">
-        <v>-12900</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3">
-        <v>-44500</v>
+        <v>-13400</v>
       </c>
       <c r="I72" s="3">
-        <v>-39600</v>
+        <v>-46200</v>
       </c>
       <c r="J72" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-29500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>446400</v>
+        <v>363700</v>
       </c>
       <c r="E76" s="3">
-        <v>612300</v>
+        <v>463500</v>
       </c>
       <c r="F76" s="3">
-        <v>562800</v>
+        <v>635700</v>
       </c>
       <c r="G76" s="3">
-        <v>375300</v>
+        <v>584300</v>
       </c>
       <c r="H76" s="3">
-        <v>267600</v>
+        <v>389700</v>
       </c>
       <c r="I76" s="3">
-        <v>189000</v>
+        <v>277800</v>
       </c>
       <c r="J76" s="3">
+        <v>196200</v>
+      </c>
+      <c r="K76" s="3">
         <v>20600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-189000</v>
+        <v>-117300</v>
       </c>
       <c r="E81" s="3">
-        <v>6000</v>
+        <v>-196200</v>
       </c>
       <c r="F81" s="3">
-        <v>12900</v>
+        <v>6200</v>
       </c>
       <c r="G81" s="3">
-        <v>31600</v>
+        <v>13400</v>
       </c>
       <c r="H81" s="3">
-        <v>-4900</v>
+        <v>32800</v>
       </c>
       <c r="I81" s="3">
-        <v>-10100</v>
+        <v>-5100</v>
       </c>
       <c r="J81" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23800</v>
+        <v>28600</v>
       </c>
       <c r="E83" s="3">
-        <v>17400</v>
+        <v>24700</v>
       </c>
       <c r="F83" s="3">
-        <v>13700</v>
+        <v>18100</v>
       </c>
       <c r="G83" s="3">
-        <v>8300</v>
+        <v>14200</v>
       </c>
       <c r="H83" s="3">
-        <v>6600</v>
+        <v>8700</v>
       </c>
       <c r="I83" s="3">
-        <v>4000</v>
+        <v>6800</v>
       </c>
       <c r="J83" s="3">
-        <v>3800</v>
+        <v>4200</v>
       </c>
       <c r="K83" s="3">
         <v>3800</v>
       </c>
       <c r="L83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M83" s="3">
         <v>7500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>64100</v>
+        <v>-21700</v>
       </c>
       <c r="E89" s="3">
-        <v>-38900</v>
+        <v>66500</v>
       </c>
       <c r="F89" s="3">
-        <v>-8500</v>
+        <v>-40400</v>
       </c>
       <c r="G89" s="3">
-        <v>-18000</v>
+        <v>-8800</v>
       </c>
       <c r="H89" s="3">
-        <v>-11800</v>
+        <v>-18700</v>
       </c>
       <c r="I89" s="3">
-        <v>-11200</v>
+        <v>-12300</v>
       </c>
       <c r="J89" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K89" s="3">
         <v>4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-55300</v>
+        <v>12800</v>
       </c>
       <c r="E91" s="3">
-        <v>-30200</v>
+        <v>-57400</v>
       </c>
       <c r="F91" s="3">
-        <v>-36900</v>
+        <v>-31300</v>
       </c>
       <c r="G91" s="3">
-        <v>-38100</v>
+        <v>-38300</v>
       </c>
       <c r="H91" s="3">
-        <v>-29200</v>
+        <v>-39600</v>
       </c>
       <c r="I91" s="3">
-        <v>-9200</v>
+        <v>-30300</v>
       </c>
       <c r="J91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K91" s="3">
         <v>6500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>3500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-73800</v>
+        <v>30200</v>
       </c>
       <c r="E94" s="3">
-        <v>-147800</v>
+        <v>-76600</v>
       </c>
       <c r="F94" s="3">
-        <v>-111400</v>
+        <v>-153500</v>
       </c>
       <c r="G94" s="3">
-        <v>-39100</v>
+        <v>-118800</v>
       </c>
       <c r="H94" s="3">
-        <v>-97700</v>
+        <v>-37400</v>
       </c>
       <c r="I94" s="3">
-        <v>-38300</v>
+        <v>-101500</v>
       </c>
       <c r="J94" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="K94" s="3">
         <v>800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,54 +4321,60 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32000</v>
+        <v>-22600</v>
       </c>
       <c r="E100" s="3">
-        <v>122400</v>
+        <v>-33200</v>
       </c>
       <c r="F100" s="3">
-        <v>229600</v>
+        <v>127100</v>
       </c>
       <c r="G100" s="3">
-        <v>66500</v>
+        <v>238300</v>
       </c>
       <c r="H100" s="3">
-        <v>87100</v>
+        <v>69000</v>
       </c>
       <c r="I100" s="3">
-        <v>112200</v>
+        <v>90500</v>
       </c>
       <c r="J100" s="3">
+        <v>116500</v>
+      </c>
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4146,59 +4395,65 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-41700</v>
+        <v>-14100</v>
       </c>
       <c r="E102" s="3">
-        <v>-64300</v>
+        <v>-43300</v>
       </c>
       <c r="F102" s="3">
-        <v>109600</v>
+        <v>-66800</v>
       </c>
       <c r="G102" s="3">
-        <v>9400</v>
+        <v>113800</v>
       </c>
       <c r="H102" s="3">
-        <v>-22400</v>
+        <v>9700</v>
       </c>
       <c r="I102" s="3">
-        <v>62700</v>
+        <v>-23300</v>
       </c>
       <c r="J102" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K102" s="3">
         <v>6200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>BITF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>45900</v>
+        <v>40600</v>
       </c>
       <c r="E8" s="3">
-        <v>57800</v>
+        <v>36500</v>
       </c>
       <c r="F8" s="3">
-        <v>55700</v>
+        <v>44800</v>
       </c>
       <c r="G8" s="3">
-        <v>82400</v>
+        <v>56400</v>
       </c>
       <c r="H8" s="3">
-        <v>61900</v>
+        <v>54400</v>
       </c>
       <c r="I8" s="3">
+        <v>80500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>60500</v>
+      </c>
+      <c r="K8" s="3">
         <v>50700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>39300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>15000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>21700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>13500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51400</v>
+        <v>51800</v>
       </c>
       <c r="E9" s="3">
-        <v>44700</v>
+        <v>52800</v>
       </c>
       <c r="F9" s="3">
-        <v>32200</v>
+        <v>50200</v>
       </c>
       <c r="G9" s="3">
-        <v>28500</v>
+        <v>43600</v>
       </c>
       <c r="H9" s="3">
-        <v>21200</v>
+        <v>31400</v>
       </c>
       <c r="I9" s="3">
+        <v>27800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K9" s="3">
         <v>18400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>12600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>10200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>29900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>10100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>9900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-5500</v>
+        <v>-11200</v>
       </c>
       <c r="E10" s="3">
-        <v>13100</v>
+        <v>-16400</v>
       </c>
       <c r="F10" s="3">
-        <v>23500</v>
+        <v>-5400</v>
       </c>
       <c r="G10" s="3">
-        <v>53900</v>
+        <v>12800</v>
       </c>
       <c r="H10" s="3">
-        <v>40800</v>
+        <v>23000</v>
       </c>
       <c r="I10" s="3">
+        <v>52600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K10" s="3">
         <v>32300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>26700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-8300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>116300</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>24800</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>-12000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>113600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>24200</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>180100</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>295800</v>
+        <v>64100</v>
       </c>
       <c r="F17" s="3">
-        <v>46300</v>
+        <v>175900</v>
       </c>
       <c r="G17" s="3">
-        <v>62700</v>
+        <v>288800</v>
       </c>
       <c r="H17" s="3">
-        <v>14700</v>
+        <v>45200</v>
       </c>
       <c r="I17" s="3">
+        <v>61200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K17" s="3">
         <v>53600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>25600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>13700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>13400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-134200</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>-238000</v>
+        <v>-27600</v>
       </c>
       <c r="F18" s="3">
-        <v>9400</v>
+        <v>-131100</v>
       </c>
       <c r="G18" s="3">
-        <v>19700</v>
+        <v>-232400</v>
       </c>
       <c r="H18" s="3">
-        <v>47300</v>
+        <v>9200</v>
       </c>
       <c r="I18" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>22700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>15100</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>21400</v>
+        <v>9600</v>
       </c>
       <c r="F20" s="3">
-        <v>9900</v>
+        <v>14800</v>
       </c>
       <c r="G20" s="3">
-        <v>6300</v>
+        <v>20900</v>
       </c>
       <c r="H20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-31100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>500</v>
       </c>
       <c r="O20" s="3">
         <v>-1000</v>
       </c>
       <c r="P20" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-90500</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>-192000</v>
+        <v>10000</v>
       </c>
       <c r="F21" s="3">
-        <v>37400</v>
+        <v>-88300</v>
       </c>
       <c r="G21" s="3">
-        <v>40200</v>
+        <v>-187400</v>
       </c>
       <c r="H21" s="3">
-        <v>57700</v>
+        <v>36500</v>
       </c>
       <c r="I21" s="3">
+        <v>39200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K21" s="3">
         <v>3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>2300</v>
       </c>
       <c r="O21" s="3">
         <v>2500</v>
       </c>
       <c r="P21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R21" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4700</v>
+        <v>2200</v>
       </c>
       <c r="E22" s="3">
-        <v>6300</v>
+        <v>4400</v>
       </c>
       <c r="F22" s="3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="G22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-123800</v>
+        <v>-3800</v>
       </c>
       <c r="E23" s="3">
-        <v>-222900</v>
+        <v>-22500</v>
       </c>
       <c r="F23" s="3">
-        <v>15200</v>
+        <v>-120900</v>
       </c>
       <c r="G23" s="3">
-        <v>24800</v>
+        <v>-217700</v>
       </c>
       <c r="H23" s="3">
-        <v>48000</v>
+        <v>14800</v>
       </c>
       <c r="I23" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-6500</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
-        <v>-26700</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>8900</v>
+        <v>-6400</v>
       </c>
       <c r="G24" s="3">
-        <v>11400</v>
+        <v>-26100</v>
       </c>
       <c r="H24" s="3">
-        <v>15200</v>
+        <v>8700</v>
       </c>
       <c r="I24" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-117300</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>-196200</v>
+        <v>-22700</v>
       </c>
       <c r="F26" s="3">
-        <v>6200</v>
+        <v>-114500</v>
       </c>
       <c r="G26" s="3">
-        <v>13400</v>
+        <v>-191600</v>
       </c>
       <c r="H26" s="3">
-        <v>32800</v>
+        <v>6100</v>
       </c>
       <c r="I26" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-10500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-117300</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>-196200</v>
+        <v>-22700</v>
       </c>
       <c r="F27" s="3">
-        <v>6200</v>
+        <v>-114500</v>
       </c>
       <c r="G27" s="3">
-        <v>13400</v>
+        <v>-191600</v>
       </c>
       <c r="H27" s="3">
-        <v>32800</v>
+        <v>6100</v>
       </c>
       <c r="I27" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-15100</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-21400</v>
+        <v>-9600</v>
       </c>
       <c r="F32" s="3">
-        <v>-9900</v>
+        <v>-14800</v>
       </c>
       <c r="G32" s="3">
-        <v>-6300</v>
+        <v>-20900</v>
       </c>
       <c r="H32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>31100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-500</v>
       </c>
       <c r="O32" s="3">
         <v>1000</v>
       </c>
       <c r="P32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-117300</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>-196200</v>
+        <v>-22700</v>
       </c>
       <c r="F33" s="3">
-        <v>6200</v>
+        <v>-114500</v>
       </c>
       <c r="G33" s="3">
-        <v>13400</v>
+        <v>-191600</v>
       </c>
       <c r="H33" s="3">
-        <v>32800</v>
+        <v>6100</v>
       </c>
       <c r="I33" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-117300</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>-196200</v>
+        <v>-22700</v>
       </c>
       <c r="F35" s="3">
-        <v>6200</v>
+        <v>-114500</v>
       </c>
       <c r="G35" s="3">
-        <v>13400</v>
+        <v>-191600</v>
       </c>
       <c r="H35" s="3">
-        <v>32800</v>
+        <v>6100</v>
       </c>
       <c r="I35" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49500</v>
+        <v>39700</v>
       </c>
       <c r="E41" s="3">
-        <v>63600</v>
+        <v>41700</v>
       </c>
       <c r="F41" s="3">
-        <v>106900</v>
+        <v>48300</v>
       </c>
       <c r="G41" s="3">
-        <v>173700</v>
+        <v>62100</v>
       </c>
       <c r="H41" s="3">
-        <v>59800</v>
+        <v>104300</v>
       </c>
       <c r="I41" s="3">
+        <v>169600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K41" s="3">
         <v>50100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>73300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,43 +2249,49 @@
         <v>22000</v>
       </c>
       <c r="E43" s="3">
-        <v>16200</v>
+        <v>22600</v>
       </c>
       <c r="F43" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>15800</v>
+      </c>
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4300</v>
-      </c>
       <c r="I43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2111,25 +2302,25 @@
         <v>800</v>
       </c>
       <c r="F44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G44" s="3">
         <v>800</v>
       </c>
       <c r="H44" s="3">
+        <v>900</v>
+      </c>
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
+        <v>700</v>
+      </c>
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>200</v>
-      </c>
-      <c r="L44" s="3">
-        <v>300</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -2141,118 +2332,136 @@
         <v>200</v>
       </c>
       <c r="P44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>69800</v>
+        <v>37400</v>
       </c>
       <c r="E45" s="3">
-        <v>91700</v>
+        <v>28100</v>
       </c>
       <c r="F45" s="3">
-        <v>338000</v>
+        <v>68200</v>
       </c>
       <c r="G45" s="3">
-        <v>217500</v>
+        <v>89600</v>
       </c>
       <c r="H45" s="3">
-        <v>146100</v>
+        <v>330000</v>
       </c>
       <c r="I45" s="3">
+        <v>212300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>142600</v>
+      </c>
+      <c r="K45" s="3">
         <v>64400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>46900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>142200</v>
+        <v>99800</v>
       </c>
       <c r="E46" s="3">
-        <v>172400</v>
+        <v>93300</v>
       </c>
       <c r="F46" s="3">
-        <v>447700</v>
+        <v>138800</v>
       </c>
       <c r="G46" s="3">
-        <v>397000</v>
+        <v>168300</v>
       </c>
       <c r="H46" s="3">
-        <v>210900</v>
+        <v>437100</v>
       </c>
       <c r="I46" s="3">
+        <v>387600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>205900</v>
+      </c>
+      <c r="K46" s="3">
         <v>118600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>124700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>12200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G47" s="3">
         <v>3700</v>
       </c>
-      <c r="F47" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2266,105 +2475,123 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>325600</v>
+        <v>305700</v>
       </c>
       <c r="E48" s="3">
-        <v>337100</v>
+        <v>318300</v>
       </c>
       <c r="F48" s="3">
-        <v>265100</v>
+        <v>317900</v>
       </c>
       <c r="G48" s="3">
-        <v>202200</v>
+        <v>329100</v>
       </c>
       <c r="H48" s="3">
-        <v>129300</v>
+        <v>258800</v>
       </c>
       <c r="I48" s="3">
+        <v>197400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K48" s="3">
         <v>97100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>70100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>54900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>51500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>53100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>53500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>56400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3">
-        <v>26600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>25800</v>
-      </c>
       <c r="H49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>25200</v>
+      </c>
+      <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>900</v>
       </c>
       <c r="P49" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>900</v>
+      </c>
+      <c r="R49" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>50600</v>
+        <v>40300</v>
       </c>
       <c r="E52" s="3">
-        <v>139900</v>
+        <v>48700</v>
       </c>
       <c r="F52" s="3">
-        <v>140600</v>
+        <v>49400</v>
       </c>
       <c r="G52" s="3">
-        <v>122400</v>
+        <v>136600</v>
       </c>
       <c r="H52" s="3">
-        <v>105400</v>
+        <v>137300</v>
       </c>
       <c r="I52" s="3">
+        <v>119500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>102900</v>
+      </c>
+      <c r="K52" s="3">
         <v>103700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>31600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2500</v>
       </c>
       <c r="O52" s="3">
         <v>2100</v>
       </c>
       <c r="P52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R52" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>521200</v>
+        <v>448200</v>
       </c>
       <c r="E54" s="3">
-        <v>654200</v>
+        <v>463200</v>
       </c>
       <c r="F54" s="3">
-        <v>883700</v>
+        <v>508900</v>
       </c>
       <c r="G54" s="3">
-        <v>750200</v>
+        <v>638700</v>
       </c>
       <c r="H54" s="3">
-        <v>445800</v>
+        <v>862800</v>
       </c>
       <c r="I54" s="3">
+        <v>732500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>435300</v>
+      </c>
+      <c r="K54" s="3">
         <v>319700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>226800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>68900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>59900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>62200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>64500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>67800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,263 +2878,295 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12400</v>
+        <v>16100</v>
       </c>
       <c r="E57" s="3">
-        <v>9200</v>
+        <v>17400</v>
       </c>
       <c r="F57" s="3">
-        <v>14200</v>
+        <v>12100</v>
       </c>
       <c r="G57" s="3">
-        <v>13700</v>
+        <v>9000</v>
       </c>
       <c r="H57" s="3">
-        <v>8800</v>
+        <v>13900</v>
       </c>
       <c r="I57" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>3100</v>
       </c>
       <c r="P57" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>91300</v>
+        <v>32300</v>
       </c>
       <c r="E58" s="3">
-        <v>115700</v>
+        <v>63000</v>
       </c>
       <c r="F58" s="3">
-        <v>177300</v>
+        <v>89200</v>
       </c>
       <c r="G58" s="3">
-        <v>103200</v>
+        <v>113000</v>
       </c>
       <c r="H58" s="3">
-        <v>19900</v>
+        <v>173100</v>
       </c>
       <c r="I58" s="3">
+        <v>100700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K58" s="3">
         <v>17700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>8900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>27700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>17500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>17000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9700</v>
+        <v>10300</v>
       </c>
       <c r="E59" s="3">
-        <v>8400</v>
+        <v>10300</v>
       </c>
       <c r="F59" s="3">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="G59" s="3">
-        <v>23100</v>
+        <v>8200</v>
       </c>
       <c r="H59" s="3">
-        <v>9500</v>
+        <v>5800</v>
       </c>
       <c r="I59" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6600</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>113500</v>
+        <v>58700</v>
       </c>
       <c r="E60" s="3">
-        <v>133300</v>
+        <v>90800</v>
       </c>
       <c r="F60" s="3">
-        <v>197500</v>
+        <v>110800</v>
       </c>
       <c r="G60" s="3">
-        <v>139900</v>
+        <v>130200</v>
       </c>
       <c r="H60" s="3">
-        <v>38300</v>
+        <v>192800</v>
       </c>
       <c r="I60" s="3">
+        <v>136600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>37400</v>
+      </c>
+      <c r="K60" s="3">
         <v>29500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>37900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>20100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>19800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41600</v>
+        <v>18400</v>
       </c>
       <c r="E61" s="3">
-        <v>55200</v>
+        <v>24700</v>
       </c>
       <c r="F61" s="3">
-        <v>34200</v>
+        <v>40600</v>
       </c>
       <c r="G61" s="3">
-        <v>14000</v>
+        <v>53900</v>
       </c>
       <c r="H61" s="3">
-        <v>9300</v>
+        <v>33400</v>
       </c>
       <c r="I61" s="3">
+        <v>13700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K61" s="3">
         <v>12000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>13100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>10100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>14300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>11600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>20900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>26400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="E62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3">
-        <v>16300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>12000</v>
-      </c>
       <c r="H62" s="3">
-        <v>8600</v>
+        <v>15900</v>
       </c>
       <c r="I62" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>157500</v>
+        <v>80100</v>
       </c>
       <c r="E66" s="3">
-        <v>190700</v>
+        <v>118200</v>
       </c>
       <c r="F66" s="3">
-        <v>248000</v>
+        <v>153800</v>
       </c>
       <c r="G66" s="3">
-        <v>165900</v>
+        <v>186200</v>
       </c>
       <c r="H66" s="3">
-        <v>56200</v>
+        <v>242100</v>
       </c>
       <c r="I66" s="3">
+        <v>162000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K66" s="3">
         <v>41900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>30500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>48300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>34700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>31600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>30300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>31800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-307300</v>
+        <v>-326100</v>
       </c>
       <c r="E72" s="3">
-        <v>-190000</v>
+        <v>-322700</v>
       </c>
       <c r="F72" s="3">
-        <v>6200</v>
+        <v>-300000</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>-185500</v>
       </c>
       <c r="H72" s="3">
-        <v>-13400</v>
+        <v>6100</v>
       </c>
       <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-46200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-41100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-29500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-21900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-15700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-10600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>363700</v>
+        <v>368100</v>
       </c>
       <c r="E76" s="3">
-        <v>463500</v>
+        <v>345000</v>
       </c>
       <c r="F76" s="3">
-        <v>635700</v>
+        <v>355100</v>
       </c>
       <c r="G76" s="3">
-        <v>584300</v>
+        <v>452500</v>
       </c>
       <c r="H76" s="3">
-        <v>389700</v>
+        <v>620700</v>
       </c>
       <c r="I76" s="3">
+        <v>570500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>380500</v>
+      </c>
+      <c r="K76" s="3">
         <v>277800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>196200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>20600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>25200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>30500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>34200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>36000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-117300</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>-196200</v>
+        <v>-22700</v>
       </c>
       <c r="F81" s="3">
-        <v>6200</v>
+        <v>-114500</v>
       </c>
       <c r="G81" s="3">
-        <v>13400</v>
+        <v>-191600</v>
       </c>
       <c r="H81" s="3">
-        <v>32800</v>
+        <v>6100</v>
       </c>
       <c r="I81" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28600</v>
+        <v>27900</v>
       </c>
       <c r="E83" s="3">
-        <v>24700</v>
+        <v>28000</v>
       </c>
       <c r="F83" s="3">
-        <v>18100</v>
+        <v>28000</v>
       </c>
       <c r="G83" s="3">
-        <v>14200</v>
+        <v>24100</v>
       </c>
       <c r="H83" s="3">
-        <v>8700</v>
+        <v>17600</v>
       </c>
       <c r="I83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K83" s="3">
         <v>6800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7500</v>
       </c>
       <c r="N83" s="3">
         <v>3800</v>
       </c>
       <c r="O83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="P83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21700</v>
+        <v>1400</v>
       </c>
       <c r="E89" s="3">
-        <v>66500</v>
+        <v>44700</v>
       </c>
       <c r="F89" s="3">
-        <v>-40400</v>
+        <v>-21200</v>
       </c>
       <c r="G89" s="3">
-        <v>-8800</v>
+        <v>65000</v>
       </c>
       <c r="H89" s="3">
-        <v>-18700</v>
+        <v>-39500</v>
       </c>
       <c r="I89" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-12300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-11700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>12800</v>
+        <v>-8100</v>
       </c>
       <c r="E91" s="3">
-        <v>-57400</v>
+        <v>-23900</v>
       </c>
       <c r="F91" s="3">
-        <v>-31300</v>
+        <v>-5000</v>
       </c>
       <c r="G91" s="3">
-        <v>-38300</v>
+        <v>-98300</v>
       </c>
       <c r="H91" s="3">
-        <v>-39600</v>
+        <v>-67800</v>
       </c>
       <c r="I91" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-30300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-9500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>6500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>3500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>30200</v>
+        <v>-4800</v>
       </c>
       <c r="E94" s="3">
-        <v>-76600</v>
+        <v>-14100</v>
       </c>
       <c r="F94" s="3">
-        <v>-153500</v>
+        <v>29500</v>
       </c>
       <c r="G94" s="3">
-        <v>-118800</v>
+        <v>-74800</v>
       </c>
       <c r="H94" s="3">
-        <v>-37400</v>
+        <v>-149900</v>
       </c>
       <c r="I94" s="3">
+        <v>-107700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-101500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-39700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-1100</v>
       </c>
       <c r="O94" s="3">
         <v>-3400</v>
       </c>
       <c r="P94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="R94" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22600</v>
+        <v>1300</v>
       </c>
       <c r="E100" s="3">
-        <v>-33200</v>
+        <v>-37200</v>
       </c>
       <c r="F100" s="3">
-        <v>127100</v>
+        <v>-22100</v>
       </c>
       <c r="G100" s="3">
-        <v>238300</v>
+        <v>-32400</v>
       </c>
       <c r="H100" s="3">
-        <v>69000</v>
+        <v>124100</v>
       </c>
       <c r="I100" s="3">
+        <v>232700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K100" s="3">
         <v>90500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>116500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4380,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -4398,62 +4895,74 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14100</v>
+        <v>-2100</v>
       </c>
       <c r="E102" s="3">
-        <v>-43300</v>
+        <v>-6700</v>
       </c>
       <c r="F102" s="3">
-        <v>-66800</v>
+        <v>-13700</v>
       </c>
       <c r="G102" s="3">
-        <v>113800</v>
+        <v>-42300</v>
       </c>
       <c r="H102" s="3">
-        <v>9700</v>
+        <v>-65200</v>
       </c>
       <c r="I102" s="3">
+        <v>111100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-23300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>65100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>6200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>BITF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40600</v>
+        <v>47900</v>
       </c>
       <c r="E8" s="3">
+        <v>40700</v>
+      </c>
+      <c r="F8" s="3">
         <v>36500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>44800</v>
       </c>
-      <c r="G8" s="3">
-        <v>56400</v>
-      </c>
       <c r="H8" s="3">
+        <v>56500</v>
+      </c>
+      <c r="I8" s="3">
         <v>54400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>80500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>60500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>50700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51800</v>
+        <v>56100</v>
       </c>
       <c r="E9" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F9" s="3">
         <v>52800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>50200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>43600</v>
       </c>
-      <c r="H9" s="3">
-        <v>31400</v>
-      </c>
       <c r="I9" s="3">
+        <v>31500</v>
+      </c>
+      <c r="J9" s="3">
         <v>27800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>29900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-11200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-16400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-5400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23000</v>
       </c>
-      <c r="I10" s="3">
-        <v>52600</v>
-      </c>
       <c r="J10" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K10" s="3">
         <v>39800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-8300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,40 +1025,43 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>113600</v>
+      </c>
+      <c r="H14" s="3">
+        <v>24200</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>113600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>24200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2500</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1049,17 +1069,20 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>81900</v>
       </c>
       <c r="E17" s="3">
+        <v>76900</v>
+      </c>
+      <c r="F17" s="3">
         <v>64100</v>
       </c>
-      <c r="F17" s="3">
-        <v>175900</v>
-      </c>
       <c r="G17" s="3">
-        <v>288800</v>
+        <v>176000</v>
       </c>
       <c r="H17" s="3">
+        <v>289000</v>
+      </c>
+      <c r="I17" s="3">
         <v>45200</v>
       </c>
-      <c r="I17" s="3">
-        <v>61200</v>
-      </c>
       <c r="J17" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K17" s="3">
         <v>14300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-34000</v>
       </c>
       <c r="E18" s="3">
-        <v>-27600</v>
+        <v>-36200</v>
       </c>
       <c r="F18" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-131100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-232400</v>
-      </c>
       <c r="H18" s="3">
+        <v>-232500</v>
+      </c>
+      <c r="I18" s="3">
         <v>9200</v>
       </c>
-      <c r="I18" s="3">
-        <v>19200</v>
-      </c>
       <c r="J18" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K18" s="3">
         <v>46200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F20" s="3">
         <v>9600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>20900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-31100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-4600</v>
       </c>
       <c r="E21" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F21" s="3">
         <v>10000</v>
       </c>
-      <c r="F21" s="3">
-        <v>-88300</v>
-      </c>
       <c r="G21" s="3">
-        <v>-187400</v>
+        <v>-88400</v>
       </c>
       <c r="H21" s="3">
+        <v>-187500</v>
+      </c>
+      <c r="I21" s="3">
         <v>36500</v>
       </c>
-      <c r="I21" s="3">
-        <v>39200</v>
-      </c>
       <c r="J21" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K21" s="3">
         <v>56400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>2200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1100</v>
       </c>
       <c r="J22" s="3">
         <v>1100</v>
       </c>
       <c r="K22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L22" s="3">
         <v>1200</v>
       </c>
       <c r="M22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N22" s="3">
         <v>1800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3800</v>
+        <v>-33800</v>
       </c>
       <c r="E23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-22500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-120900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-217700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-217800</v>
+      </c>
+      <c r="I23" s="3">
         <v>14800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>46900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-26100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>-100</v>
       </c>
       <c r="Q24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R24" s="3">
         <v>-3300</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-33600</v>
       </c>
       <c r="E26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-22700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-114500</v>
-      </c>
       <c r="G26" s="3">
-        <v>-191600</v>
+        <v>-114600</v>
       </c>
       <c r="H26" s="3">
+        <v>-191700</v>
+      </c>
+      <c r="I26" s="3">
         <v>6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-33600</v>
       </c>
       <c r="E27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-22700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-114500</v>
-      </c>
       <c r="G27" s="3">
-        <v>-191600</v>
+        <v>-114600</v>
       </c>
       <c r="H27" s="3">
+        <v>-191700</v>
+      </c>
+      <c r="I27" s="3">
         <v>6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-9600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-20900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>31100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-33600</v>
       </c>
       <c r="E33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-22700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-114500</v>
-      </c>
       <c r="G33" s="3">
-        <v>-191600</v>
+        <v>-114600</v>
       </c>
       <c r="H33" s="3">
+        <v>-191700</v>
+      </c>
+      <c r="I33" s="3">
         <v>6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-33600</v>
       </c>
       <c r="E35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-22700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-114500</v>
-      </c>
       <c r="G35" s="3">
-        <v>-191600</v>
+        <v>-114600</v>
       </c>
       <c r="H35" s="3">
+        <v>-191700</v>
+      </c>
+      <c r="I35" s="3">
         <v>6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E41" s="3">
         <v>39700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41700</v>
       </c>
-      <c r="F41" s="3">
-        <v>48300</v>
-      </c>
       <c r="G41" s="3">
+        <v>48400</v>
+      </c>
+      <c r="H41" s="3">
         <v>62100</v>
       </c>
-      <c r="H41" s="3">
-        <v>104300</v>
-      </c>
       <c r="I41" s="3">
+        <v>104400</v>
+      </c>
+      <c r="J41" s="3">
         <v>169600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>73300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,63 +2330,69 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E43" s="3">
         <v>22000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1900</v>
       </c>
       <c r="N43" s="3">
         <v>1900</v>
       </c>
       <c r="O43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E44" s="3">
         <v>800</v>
@@ -2308,163 +2404,172 @@
         <v>800</v>
       </c>
       <c r="H44" s="3">
+        <v>800</v>
+      </c>
+      <c r="I44" s="3">
         <v>900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>700</v>
       </c>
       <c r="J44" s="3">
         <v>700</v>
       </c>
       <c r="K44" s="3">
+        <v>700</v>
+      </c>
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>300</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E45" s="3">
         <v>37400</v>
       </c>
-      <c r="E45" s="3">
-        <v>28100</v>
-      </c>
       <c r="F45" s="3">
+        <v>28200</v>
+      </c>
+      <c r="G45" s="3">
         <v>68200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>89600</v>
       </c>
-      <c r="H45" s="3">
-        <v>330000</v>
-      </c>
       <c r="I45" s="3">
-        <v>212300</v>
+        <v>330200</v>
       </c>
       <c r="J45" s="3">
+        <v>212400</v>
+      </c>
+      <c r="K45" s="3">
         <v>142600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>64400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E46" s="3">
         <v>99800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>93300</v>
       </c>
-      <c r="F46" s="3">
-        <v>138800</v>
-      </c>
       <c r="G46" s="3">
-        <v>168300</v>
+        <v>138900</v>
       </c>
       <c r="H46" s="3">
-        <v>437100</v>
+        <v>168400</v>
       </c>
       <c r="I46" s="3">
-        <v>387600</v>
+        <v>437300</v>
       </c>
       <c r="J46" s="3">
+        <v>387800</v>
+      </c>
+      <c r="K46" s="3">
         <v>205900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>118600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>124700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>2400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2800</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2481,8 +2586,8 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>305700</v>
+        <v>290800</v>
       </c>
       <c r="E48" s="3">
-        <v>318300</v>
+        <v>305800</v>
       </c>
       <c r="F48" s="3">
-        <v>317900</v>
+        <v>318500</v>
       </c>
       <c r="G48" s="3">
-        <v>329100</v>
+        <v>318100</v>
       </c>
       <c r="H48" s="3">
-        <v>258800</v>
+        <v>329300</v>
       </c>
       <c r="I48" s="3">
-        <v>197400</v>
+        <v>259000</v>
       </c>
       <c r="J48" s="3">
+        <v>197500</v>
+      </c>
+      <c r="K48" s="3">
         <v>126200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>97100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>70100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>54900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>51500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>53100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>53500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>56400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2552,46 +2663,49 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>26000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>25200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
       </c>
       <c r="L49" s="3">
+        <v>300</v>
+      </c>
+      <c r="M49" s="3">
         <v>400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E52" s="3">
         <v>40300</v>
       </c>
-      <c r="E52" s="3">
-        <v>48700</v>
-      </c>
       <c r="F52" s="3">
+        <v>48800</v>
+      </c>
+      <c r="G52" s="3">
         <v>49400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>136600</v>
       </c>
-      <c r="H52" s="3">
-        <v>137300</v>
-      </c>
       <c r="I52" s="3">
-        <v>119500</v>
+        <v>137400</v>
       </c>
       <c r="J52" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K52" s="3">
         <v>102900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>103700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>448200</v>
+        <v>439800</v>
       </c>
       <c r="E54" s="3">
-        <v>463200</v>
+        <v>448400</v>
       </c>
       <c r="F54" s="3">
-        <v>508900</v>
+        <v>463400</v>
       </c>
       <c r="G54" s="3">
-        <v>638700</v>
+        <v>509200</v>
       </c>
       <c r="H54" s="3">
-        <v>862800</v>
+        <v>639100</v>
       </c>
       <c r="I54" s="3">
-        <v>732500</v>
+        <v>863300</v>
       </c>
       <c r="J54" s="3">
+        <v>732900</v>
+      </c>
+      <c r="K54" s="3">
         <v>435300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>319700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>226800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>59900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>62200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>64500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>67800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,143 +3010,150 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E57" s="3">
         <v>16100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17400</v>
       </c>
-      <c r="F57" s="3">
-        <v>12100</v>
-      </c>
       <c r="G57" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H57" s="3">
         <v>9000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2800</v>
       </c>
       <c r="P57" s="3">
         <v>2800</v>
       </c>
       <c r="Q57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E58" s="3">
         <v>32300</v>
       </c>
-      <c r="E58" s="3">
-        <v>63000</v>
-      </c>
       <c r="F58" s="3">
+        <v>63100</v>
+      </c>
+      <c r="G58" s="3">
         <v>89200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>113000</v>
       </c>
-      <c r="H58" s="3">
-        <v>173100</v>
-      </c>
       <c r="I58" s="3">
-        <v>100700</v>
+        <v>173200</v>
       </c>
       <c r="J58" s="3">
+        <v>100800</v>
+      </c>
+      <c r="K58" s="3">
         <v>19500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F59" s="3">
         <v>10300</v>
       </c>
-      <c r="E59" s="3">
-        <v>10300</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5800</v>
       </c>
-      <c r="I59" s="3">
-        <v>22500</v>
-      </c>
       <c r="J59" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K59" s="3">
         <v>9300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6600</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
@@ -3024,152 +3161,161 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>58700</v>
+        <v>50500</v>
       </c>
       <c r="E60" s="3">
+        <v>58800</v>
+      </c>
+      <c r="F60" s="3">
         <v>90800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>110800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>130200</v>
       </c>
-      <c r="H60" s="3">
-        <v>192800</v>
-      </c>
       <c r="I60" s="3">
-        <v>136600</v>
+        <v>192900</v>
       </c>
       <c r="J60" s="3">
+        <v>136700</v>
+      </c>
+      <c r="K60" s="3">
         <v>37400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>37900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E61" s="3">
         <v>18400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>40600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>53900</v>
       </c>
-      <c r="H61" s="3">
-        <v>33400</v>
-      </c>
       <c r="I61" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J61" s="3">
         <v>13700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E66" s="3">
         <v>80100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>118200</v>
       </c>
-      <c r="F66" s="3">
-        <v>153800</v>
-      </c>
       <c r="G66" s="3">
-        <v>186200</v>
+        <v>153900</v>
       </c>
       <c r="H66" s="3">
-        <v>242100</v>
+        <v>186300</v>
       </c>
       <c r="I66" s="3">
-        <v>162000</v>
+        <v>242300</v>
       </c>
       <c r="J66" s="3">
+        <v>162100</v>
+      </c>
+      <c r="K66" s="3">
         <v>54800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-326100</v>
+        <v>-359000</v>
       </c>
       <c r="E72" s="3">
-        <v>-322700</v>
+        <v>-326300</v>
       </c>
       <c r="F72" s="3">
-        <v>-300000</v>
+        <v>-322900</v>
       </c>
       <c r="G72" s="3">
-        <v>-185500</v>
+        <v>-300200</v>
       </c>
       <c r="H72" s="3">
+        <v>-185600</v>
+      </c>
+      <c r="I72" s="3">
         <v>6100</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
       <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
         <v>-13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-41100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>368100</v>
+        <v>368400</v>
       </c>
       <c r="E76" s="3">
-        <v>345000</v>
+        <v>368300</v>
       </c>
       <c r="F76" s="3">
-        <v>355100</v>
+        <v>345200</v>
       </c>
       <c r="G76" s="3">
-        <v>452500</v>
+        <v>355300</v>
       </c>
       <c r="H76" s="3">
-        <v>620700</v>
+        <v>452700</v>
       </c>
       <c r="I76" s="3">
-        <v>570500</v>
+        <v>621000</v>
       </c>
       <c r="J76" s="3">
+        <v>570800</v>
+      </c>
+      <c r="K76" s="3">
         <v>380500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>277800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>196200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-33600</v>
       </c>
       <c r="E81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-22700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-114500</v>
-      </c>
       <c r="G81" s="3">
-        <v>-191600</v>
+        <v>-114600</v>
       </c>
       <c r="H81" s="3">
+        <v>-191700</v>
+      </c>
+      <c r="I81" s="3">
         <v>6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="E83" s="3">
         <v>28000</v>
       </c>
       <c r="F83" s="3">
+        <v>28100</v>
+      </c>
+      <c r="G83" s="3">
         <v>28000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3800</v>
       </c>
       <c r="N83" s="3">
         <v>3800</v>
       </c>
       <c r="O83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P83" s="3">
         <v>7500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>44700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>65000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-39500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-98300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-67800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-60800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-30300</v>
       </c>
       <c r="K91" s="3">
         <v>-30300</v>
       </c>
       <c r="L91" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-9500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>6500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>3500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>29500</v>
       </c>
-      <c r="G94" s="3">
-        <v>-74800</v>
-      </c>
       <c r="H94" s="3">
-        <v>-149900</v>
+        <v>-89600</v>
       </c>
       <c r="I94" s="3">
-        <v>-107700</v>
+        <v>-135200</v>
       </c>
       <c r="J94" s="3">
+        <v>-107800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-36500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-101500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,73 +5058,79 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-37200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-22100</v>
       </c>
-      <c r="G100" s="3">
-        <v>-32400</v>
-      </c>
       <c r="H100" s="3">
-        <v>124100</v>
+        <v>-32500</v>
       </c>
       <c r="I100" s="3">
-        <v>232700</v>
+        <v>124200</v>
       </c>
       <c r="J100" s="3">
+        <v>232800</v>
+      </c>
+      <c r="K100" s="3">
         <v>67400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>90500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>116500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -4901,68 +5150,74 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2100</v>
+        <v>2000</v>
       </c>
       <c r="E102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-42300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-65200</v>
       </c>
-      <c r="I102" s="3">
-        <v>111100</v>
-      </c>
       <c r="J102" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K102" s="3">
         <v>9500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>65100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BITF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>BITF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47900</v>
+        <v>47600</v>
       </c>
       <c r="E8" s="3">
-        <v>40700</v>
+        <v>48800</v>
       </c>
       <c r="F8" s="3">
-        <v>36500</v>
+        <v>41400</v>
       </c>
       <c r="G8" s="3">
-        <v>44800</v>
+        <v>37100</v>
       </c>
       <c r="H8" s="3">
-        <v>56500</v>
+        <v>45700</v>
       </c>
       <c r="I8" s="3">
-        <v>54400</v>
+        <v>57500</v>
       </c>
       <c r="J8" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K8" s="3">
         <v>80500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>60500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>50700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>56100</v>
+        <v>59800</v>
       </c>
       <c r="E9" s="3">
-        <v>51900</v>
+        <v>57100</v>
       </c>
       <c r="F9" s="3">
         <v>52800</v>
       </c>
       <c r="G9" s="3">
-        <v>50200</v>
+        <v>53800</v>
       </c>
       <c r="H9" s="3">
-        <v>43600</v>
+        <v>51100</v>
       </c>
       <c r="I9" s="3">
-        <v>31500</v>
+        <v>44400</v>
       </c>
       <c r="J9" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K9" s="3">
         <v>27800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>29900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-8100</v>
+        <v>-12200</v>
       </c>
       <c r="E10" s="3">
-        <v>-11200</v>
+        <v>-8300</v>
       </c>
       <c r="F10" s="3">
-        <v>-16400</v>
+        <v>-11400</v>
       </c>
       <c r="G10" s="3">
-        <v>-5400</v>
+        <v>-16700</v>
       </c>
       <c r="H10" s="3">
-        <v>12800</v>
+        <v>-5500</v>
       </c>
       <c r="I10" s="3">
-        <v>23000</v>
+        <v>13100</v>
       </c>
       <c r="J10" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K10" s="3">
         <v>52700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>39800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,43 +1045,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>17300</v>
+        <v>13700</v>
       </c>
       <c r="F14" s="3">
-        <v>-12000</v>
+        <v>17700</v>
       </c>
       <c r="G14" s="3">
-        <v>113600</v>
+        <v>-12200</v>
       </c>
       <c r="H14" s="3">
-        <v>24200</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>115700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>24600</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2500</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1072,17 +1092,20 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>81900</v>
+        <v>72900</v>
       </c>
       <c r="E17" s="3">
-        <v>76900</v>
+        <v>83400</v>
       </c>
       <c r="F17" s="3">
-        <v>64100</v>
+        <v>78300</v>
       </c>
       <c r="G17" s="3">
-        <v>176000</v>
+        <v>65300</v>
       </c>
       <c r="H17" s="3">
-        <v>289000</v>
+        <v>179200</v>
       </c>
       <c r="I17" s="3">
-        <v>45200</v>
+        <v>294300</v>
       </c>
       <c r="J17" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K17" s="3">
         <v>61300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>53600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-34000</v>
+        <v>-25300</v>
       </c>
       <c r="E18" s="3">
-        <v>-36200</v>
+        <v>-34600</v>
       </c>
       <c r="F18" s="3">
-        <v>-27700</v>
+        <v>-36900</v>
       </c>
       <c r="G18" s="3">
-        <v>-131100</v>
+        <v>-28200</v>
       </c>
       <c r="H18" s="3">
-        <v>-232500</v>
+        <v>-133500</v>
       </c>
       <c r="I18" s="3">
-        <v>9200</v>
+        <v>-236800</v>
       </c>
       <c r="J18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K18" s="3">
         <v>19300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>33800</v>
-      </c>
       <c r="F20" s="3">
-        <v>9600</v>
+        <v>34400</v>
       </c>
       <c r="G20" s="3">
-        <v>14800</v>
+        <v>9800</v>
       </c>
       <c r="H20" s="3">
-        <v>20900</v>
+        <v>15000</v>
       </c>
       <c r="I20" s="3">
-        <v>9600</v>
+        <v>21300</v>
       </c>
       <c r="J20" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K20" s="3">
         <v>6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-31100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4600</v>
+        <v>5900</v>
       </c>
       <c r="E21" s="3">
-        <v>25600</v>
+        <v>-4700</v>
       </c>
       <c r="F21" s="3">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="G21" s="3">
-        <v>-88400</v>
+        <v>10200</v>
       </c>
       <c r="H21" s="3">
-        <v>-187500</v>
+        <v>-90000</v>
       </c>
       <c r="I21" s="3">
-        <v>36500</v>
+        <v>-191000</v>
       </c>
       <c r="J21" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K21" s="3">
         <v>39300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>56400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
-        <v>4400</v>
-      </c>
       <c r="G22" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H22" s="3">
-        <v>6100</v>
+        <v>4700</v>
       </c>
       <c r="I22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J22" s="3">
         <v>4100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1100</v>
       </c>
       <c r="K22" s="3">
         <v>1100</v>
       </c>
       <c r="L22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M22" s="3">
         <v>1200</v>
       </c>
       <c r="N22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-33800</v>
+        <v>-25200</v>
       </c>
       <c r="E23" s="3">
-        <v>-4600</v>
+        <v>-34400</v>
       </c>
       <c r="F23" s="3">
-        <v>-22500</v>
+        <v>-4700</v>
       </c>
       <c r="G23" s="3">
-        <v>-120900</v>
+        <v>-22900</v>
       </c>
       <c r="H23" s="3">
-        <v>-217800</v>
+        <v>-123200</v>
       </c>
       <c r="I23" s="3">
-        <v>14800</v>
+        <v>-221800</v>
       </c>
       <c r="J23" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K23" s="3">
         <v>24200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>-400</v>
-      </c>
       <c r="F24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>-6400</v>
-      </c>
       <c r="H24" s="3">
-        <v>-26100</v>
+        <v>-6500</v>
       </c>
       <c r="I24" s="3">
-        <v>8700</v>
+        <v>-26600</v>
       </c>
       <c r="J24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K24" s="3">
         <v>11200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>-100</v>
       </c>
       <c r="R24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S24" s="3">
         <v>-3300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33600</v>
+        <v>-25700</v>
       </c>
       <c r="E26" s="3">
-        <v>-4100</v>
+        <v>-34200</v>
       </c>
       <c r="F26" s="3">
-        <v>-22700</v>
+        <v>-4200</v>
       </c>
       <c r="G26" s="3">
-        <v>-114600</v>
+        <v>-23200</v>
       </c>
       <c r="H26" s="3">
-        <v>-191700</v>
+        <v>-116700</v>
       </c>
       <c r="I26" s="3">
-        <v>6100</v>
+        <v>-195200</v>
       </c>
       <c r="J26" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K26" s="3">
         <v>13100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33600</v>
+        <v>-25700</v>
       </c>
       <c r="E27" s="3">
-        <v>-4100</v>
+        <v>-34200</v>
       </c>
       <c r="F27" s="3">
-        <v>-22700</v>
+        <v>-4200</v>
       </c>
       <c r="G27" s="3">
-        <v>-114600</v>
+        <v>-23200</v>
       </c>
       <c r="H27" s="3">
-        <v>-191700</v>
+        <v>-116700</v>
       </c>
       <c r="I27" s="3">
-        <v>6100</v>
+        <v>-195200</v>
       </c>
       <c r="J27" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K27" s="3">
         <v>13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-33800</v>
-      </c>
       <c r="F32" s="3">
-        <v>-9600</v>
+        <v>-34400</v>
       </c>
       <c r="G32" s="3">
-        <v>-14800</v>
+        <v>-9800</v>
       </c>
       <c r="H32" s="3">
-        <v>-20900</v>
+        <v>-15000</v>
       </c>
       <c r="I32" s="3">
-        <v>-9600</v>
+        <v>-21300</v>
       </c>
       <c r="J32" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>31100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33600</v>
+        <v>-25700</v>
       </c>
       <c r="E33" s="3">
-        <v>-4100</v>
+        <v>-34200</v>
       </c>
       <c r="F33" s="3">
-        <v>-22700</v>
+        <v>-4200</v>
       </c>
       <c r="G33" s="3">
-        <v>-114600</v>
+        <v>-23200</v>
       </c>
       <c r="H33" s="3">
-        <v>-191700</v>
+        <v>-116700</v>
       </c>
       <c r="I33" s="3">
-        <v>6100</v>
+        <v>-195200</v>
       </c>
       <c r="J33" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K33" s="3">
         <v>13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33600</v>
+        <v>-25700</v>
       </c>
       <c r="E35" s="3">
-        <v>-4100</v>
+        <v>-34200</v>
       </c>
       <c r="F35" s="3">
-        <v>-22700</v>
+        <v>-4200</v>
       </c>
       <c r="G35" s="3">
-        <v>-114600</v>
+        <v>-23200</v>
       </c>
       <c r="H35" s="3">
-        <v>-191700</v>
+        <v>-116700</v>
       </c>
       <c r="I35" s="3">
-        <v>6100</v>
+        <v>-195200</v>
       </c>
       <c r="J35" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K35" s="3">
         <v>13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41700</v>
+        <v>64300</v>
       </c>
       <c r="E41" s="3">
-        <v>39700</v>
+        <v>42500</v>
       </c>
       <c r="F41" s="3">
-        <v>41700</v>
+        <v>40400</v>
       </c>
       <c r="G41" s="3">
-        <v>48400</v>
+        <v>42500</v>
       </c>
       <c r="H41" s="3">
-        <v>62100</v>
+        <v>49300</v>
       </c>
       <c r="I41" s="3">
-        <v>104400</v>
+        <v>63200</v>
       </c>
       <c r="J41" s="3">
+        <v>106300</v>
+      </c>
+      <c r="K41" s="3">
         <v>169600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>73300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,69 +2423,75 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26200</v>
+        <v>16300</v>
       </c>
       <c r="E43" s="3">
-        <v>22000</v>
+        <v>26600</v>
       </c>
       <c r="F43" s="3">
-        <v>22600</v>
+        <v>22400</v>
       </c>
       <c r="G43" s="3">
-        <v>21500</v>
+        <v>23100</v>
       </c>
       <c r="H43" s="3">
-        <v>15800</v>
+        <v>21900</v>
       </c>
       <c r="I43" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4000</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1900</v>
       </c>
       <c r="O43" s="3">
         <v>1900</v>
       </c>
       <c r="P43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
-      </c>
-      <c r="E44" s="3">
-        <v>800</v>
       </c>
       <c r="F44" s="3">
         <v>800</v>
@@ -2407,146 +2503,155 @@
         <v>800</v>
       </c>
       <c r="I44" s="3">
+        <v>800</v>
+      </c>
+      <c r="J44" s="3">
         <v>900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>700</v>
       </c>
       <c r="K44" s="3">
         <v>700</v>
       </c>
       <c r="L44" s="3">
+        <v>700</v>
+      </c>
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>300</v>
-      </c>
-      <c r="R44" s="3">
-        <v>200</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28500</v>
+        <v>33500</v>
       </c>
       <c r="E45" s="3">
-        <v>37400</v>
+        <v>29100</v>
       </c>
       <c r="F45" s="3">
-        <v>28200</v>
+        <v>38100</v>
       </c>
       <c r="G45" s="3">
-        <v>68200</v>
+        <v>28700</v>
       </c>
       <c r="H45" s="3">
-        <v>89600</v>
+        <v>69400</v>
       </c>
       <c r="I45" s="3">
-        <v>330200</v>
+        <v>91300</v>
       </c>
       <c r="J45" s="3">
+        <v>336300</v>
+      </c>
+      <c r="K45" s="3">
         <v>212400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>142600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>64400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>97300</v>
+        <v>115200</v>
       </c>
       <c r="E46" s="3">
-        <v>99800</v>
+        <v>99100</v>
       </c>
       <c r="F46" s="3">
-        <v>93300</v>
+        <v>101700</v>
       </c>
       <c r="G46" s="3">
-        <v>138900</v>
+        <v>95000</v>
       </c>
       <c r="H46" s="3">
-        <v>168400</v>
+        <v>141400</v>
       </c>
       <c r="I46" s="3">
-        <v>437300</v>
+        <v>171500</v>
       </c>
       <c r="J46" s="3">
+        <v>445300</v>
+      </c>
+      <c r="K46" s="3">
         <v>387800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>205900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>118600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>124700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2554,25 +2659,25 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2800</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2589,8 +2694,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2598,66 +2703,72 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>290800</v>
+        <v>300600</v>
       </c>
       <c r="E48" s="3">
-        <v>305800</v>
+        <v>296100</v>
       </c>
       <c r="F48" s="3">
-        <v>318500</v>
+        <v>311400</v>
       </c>
       <c r="G48" s="3">
-        <v>318100</v>
+        <v>324300</v>
       </c>
       <c r="H48" s="3">
-        <v>329300</v>
+        <v>323900</v>
       </c>
       <c r="I48" s="3">
-        <v>259000</v>
+        <v>335300</v>
       </c>
       <c r="J48" s="3">
+        <v>263700</v>
+      </c>
+      <c r="K48" s="3">
         <v>197500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>126200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>97100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>70100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>54900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>51500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>53100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>53500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>56400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2666,46 +2777,49 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1100</v>
       </c>
-      <c r="I49" s="3">
-        <v>26000</v>
-      </c>
       <c r="J49" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K49" s="3">
         <v>25200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
       </c>
       <c r="M49" s="3">
+        <v>300</v>
+      </c>
+      <c r="N49" s="3">
         <v>400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>51700</v>
+        <v>36700</v>
       </c>
       <c r="E52" s="3">
-        <v>40300</v>
+        <v>52700</v>
       </c>
       <c r="F52" s="3">
-        <v>48800</v>
+        <v>41000</v>
       </c>
       <c r="G52" s="3">
-        <v>49400</v>
+        <v>49700</v>
       </c>
       <c r="H52" s="3">
-        <v>136600</v>
+        <v>50400</v>
       </c>
       <c r="I52" s="3">
-        <v>137400</v>
+        <v>139100</v>
       </c>
       <c r="J52" s="3">
+        <v>139900</v>
+      </c>
+      <c r="K52" s="3">
         <v>119600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>102900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>103700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>439800</v>
+        <v>457800</v>
       </c>
       <c r="E54" s="3">
-        <v>448400</v>
+        <v>447900</v>
       </c>
       <c r="F54" s="3">
-        <v>463400</v>
+        <v>456600</v>
       </c>
       <c r="G54" s="3">
-        <v>509200</v>
+        <v>471900</v>
       </c>
       <c r="H54" s="3">
-        <v>639100</v>
+        <v>518500</v>
       </c>
       <c r="I54" s="3">
-        <v>863300</v>
+        <v>650800</v>
       </c>
       <c r="J54" s="3">
+        <v>879100</v>
+      </c>
+      <c r="K54" s="3">
         <v>732900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>435300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>319700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>226800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>59900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>62200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>64500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>67800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,152 +3141,159 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13900</v>
+        <v>10500</v>
       </c>
       <c r="E57" s="3">
-        <v>16100</v>
+        <v>14200</v>
       </c>
       <c r="F57" s="3">
-        <v>17400</v>
+        <v>16400</v>
       </c>
       <c r="G57" s="3">
-        <v>12200</v>
+        <v>17700</v>
       </c>
       <c r="H57" s="3">
-        <v>9000</v>
+        <v>12400</v>
       </c>
       <c r="I57" s="3">
-        <v>13900</v>
+        <v>9100</v>
       </c>
       <c r="J57" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K57" s="3">
         <v>13300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2800</v>
       </c>
       <c r="Q57" s="3">
         <v>2800</v>
       </c>
       <c r="R57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S57" s="3">
         <v>3100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25000</v>
+        <v>17900</v>
       </c>
       <c r="E58" s="3">
-        <v>32300</v>
+        <v>25500</v>
       </c>
       <c r="F58" s="3">
-        <v>63100</v>
+        <v>32900</v>
       </c>
       <c r="G58" s="3">
-        <v>89200</v>
+        <v>64200</v>
       </c>
       <c r="H58" s="3">
-        <v>113000</v>
+        <v>90900</v>
       </c>
       <c r="I58" s="3">
-        <v>173200</v>
+        <v>115100</v>
       </c>
       <c r="J58" s="3">
+        <v>176400</v>
+      </c>
+      <c r="K58" s="3">
         <v>100800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11600</v>
+        <v>12400</v>
       </c>
       <c r="E59" s="3">
-        <v>10400</v>
+        <v>11800</v>
       </c>
       <c r="F59" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="G59" s="3">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="H59" s="3">
-        <v>8200</v>
+        <v>9600</v>
       </c>
       <c r="I59" s="3">
-        <v>5800</v>
+        <v>8400</v>
       </c>
       <c r="J59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K59" s="3">
         <v>22600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6600</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
@@ -3164,161 +3301,170 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>50500</v>
+        <v>40800</v>
       </c>
       <c r="E60" s="3">
-        <v>58800</v>
+        <v>51500</v>
       </c>
       <c r="F60" s="3">
-        <v>90800</v>
+        <v>59800</v>
       </c>
       <c r="G60" s="3">
-        <v>110800</v>
+        <v>92500</v>
       </c>
       <c r="H60" s="3">
-        <v>130200</v>
+        <v>112900</v>
       </c>
       <c r="I60" s="3">
-        <v>192900</v>
+        <v>132600</v>
       </c>
       <c r="J60" s="3">
+        <v>196500</v>
+      </c>
+      <c r="K60" s="3">
         <v>136700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>37400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>37900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="E61" s="3">
-        <v>18400</v>
+        <v>18100</v>
       </c>
       <c r="F61" s="3">
-        <v>24700</v>
+        <v>18700</v>
       </c>
       <c r="G61" s="3">
-        <v>40600</v>
+        <v>25200</v>
       </c>
       <c r="H61" s="3">
-        <v>53900</v>
+        <v>41400</v>
       </c>
       <c r="I61" s="3">
-        <v>33500</v>
+        <v>54900</v>
       </c>
       <c r="J61" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K61" s="3">
         <v>13700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>3100</v>
       </c>
-      <c r="E62" s="3">
-        <v>3000</v>
-      </c>
       <c r="F62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3">
-        <v>15900</v>
-      </c>
       <c r="J62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K62" s="3">
         <v>11700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71400</v>
+        <v>62300</v>
       </c>
       <c r="E66" s="3">
-        <v>80100</v>
+        <v>72800</v>
       </c>
       <c r="F66" s="3">
-        <v>118200</v>
+        <v>81600</v>
       </c>
       <c r="G66" s="3">
-        <v>153900</v>
+        <v>120400</v>
       </c>
       <c r="H66" s="3">
-        <v>186300</v>
+        <v>156700</v>
       </c>
       <c r="I66" s="3">
-        <v>242300</v>
+        <v>189800</v>
       </c>
       <c r="J66" s="3">
+        <v>246700</v>
+      </c>
+      <c r="K66" s="3">
         <v>162100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-359000</v>
+        <v>-390900</v>
       </c>
       <c r="E72" s="3">
-        <v>-326300</v>
+        <v>-365600</v>
       </c>
       <c r="F72" s="3">
-        <v>-322900</v>
+        <v>-332200</v>
       </c>
       <c r="G72" s="3">
-        <v>-300200</v>
+        <v>-328800</v>
       </c>
       <c r="H72" s="3">
-        <v>-185600</v>
+        <v>-305700</v>
       </c>
       <c r="I72" s="3">
-        <v>6100</v>
+        <v>-189000</v>
       </c>
       <c r="J72" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
         <v>-13100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-46200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>368400</v>
+        <v>395500</v>
       </c>
       <c r="E76" s="3">
-        <v>368300</v>
+        <v>375200</v>
       </c>
       <c r="F76" s="3">
-        <v>345200</v>
+        <v>375000</v>
       </c>
       <c r="G76" s="3">
-        <v>355300</v>
+        <v>351500</v>
       </c>
       <c r="H76" s="3">
-        <v>452700</v>
+        <v>361800</v>
       </c>
       <c r="I76" s="3">
-        <v>621000</v>
+        <v>461000</v>
       </c>
       <c r="J76" s="3">
+        <v>632400</v>
+      </c>
+      <c r="K76" s="3">
         <v>570800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>380500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>277800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>196200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33600</v>
+        <v>-25700</v>
       </c>
       <c r="E81" s="3">
-        <v>-4100</v>
+        <v>-34200</v>
       </c>
       <c r="F81" s="3">
-        <v>-22700</v>
+        <v>-4200</v>
       </c>
       <c r="G81" s="3">
-        <v>-114600</v>
+        <v>-23200</v>
       </c>
       <c r="H81" s="3">
-        <v>-191700</v>
+        <v>-116700</v>
       </c>
       <c r="I81" s="3">
-        <v>6100</v>
+        <v>-195200</v>
       </c>
       <c r="J81" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K81" s="3">
         <v>13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>27700</v>
+        <v>29900</v>
       </c>
       <c r="E83" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="F83" s="3">
-        <v>28100</v>
+        <v>28500</v>
       </c>
       <c r="G83" s="3">
-        <v>28000</v>
+        <v>28600</v>
       </c>
       <c r="H83" s="3">
-        <v>24100</v>
+        <v>28500</v>
       </c>
       <c r="I83" s="3">
-        <v>17600</v>
+        <v>24600</v>
       </c>
       <c r="J83" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K83" s="3">
         <v>13900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3800</v>
       </c>
       <c r="O83" s="3">
         <v>3800</v>
       </c>
       <c r="P83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q83" s="3">
         <v>7500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1900</v>
+        <v>10400</v>
       </c>
       <c r="E89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="F89" s="3">
-        <v>44700</v>
-      </c>
       <c r="G89" s="3">
-        <v>-21200</v>
+        <v>45500</v>
       </c>
       <c r="H89" s="3">
-        <v>65000</v>
+        <v>-21600</v>
       </c>
       <c r="I89" s="3">
-        <v>-39500</v>
+        <v>66200</v>
       </c>
       <c r="J89" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-8600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-98300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-67800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-60800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-30300</v>
       </c>
       <c r="L91" s="3">
         <v>-30300</v>
       </c>
       <c r="M91" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-9500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>6500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>3500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21200</v>
+        <v>-22200</v>
       </c>
       <c r="E94" s="3">
-        <v>-4800</v>
+        <v>-21600</v>
       </c>
       <c r="F94" s="3">
-        <v>-14100</v>
+        <v>-4900</v>
       </c>
       <c r="G94" s="3">
-        <v>29500</v>
+        <v>-14400</v>
       </c>
       <c r="H94" s="3">
-        <v>-89600</v>
+        <v>30100</v>
       </c>
       <c r="I94" s="3">
-        <v>-135200</v>
+        <v>-91200</v>
       </c>
       <c r="J94" s="3">
+        <v>-137700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-107800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-101500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-39700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,79 +5304,85 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>21300</v>
+        <v>33800</v>
       </c>
       <c r="E100" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
-        <v>-37200</v>
-      </c>
       <c r="G100" s="3">
-        <v>-22100</v>
+        <v>-37900</v>
       </c>
       <c r="H100" s="3">
-        <v>-32500</v>
+        <v>-22500</v>
       </c>
       <c r="I100" s="3">
-        <v>124200</v>
+        <v>-33100</v>
       </c>
       <c r="J100" s="3">
+        <v>126500</v>
+      </c>
+      <c r="K100" s="3">
         <v>232800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>67400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>90500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>116500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5153,71 +5402,77 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2000</v>
+        <v>21800</v>
       </c>
       <c r="E102" s="3">
-        <v>-2000</v>
+        <v>2100</v>
       </c>
       <c r="F102" s="3">
-        <v>-6700</v>
+        <v>-2100</v>
       </c>
       <c r="G102" s="3">
-        <v>-13700</v>
+        <v>-6800</v>
       </c>
       <c r="H102" s="3">
-        <v>-42300</v>
+        <v>-14000</v>
       </c>
       <c r="I102" s="3">
-        <v>-65200</v>
+        <v>-43100</v>
       </c>
       <c r="J102" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="K102" s="3">
         <v>111200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>65100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2500</v>
       </c>
     </row>
